--- a/raw_data/LEO-USD_4h_process.xlsx
+++ b/raw_data/LEO-USD_4h_process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="196">
   <si>
     <t>Open</t>
   </si>
@@ -58,129 +58,6 @@
     <t>sell_rsi_9</t>
   </si>
   <si>
-    <t>2023-12-27 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-27 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 09:00:00-03:00</t>
-  </si>
-  <si>
     <t>2024-01-03 13:00:00-03:00</t>
   </si>
   <si>
@@ -599,6 +476,129 @@
   </si>
   <si>
     <t>2024-01-26 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-26 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 13:00:00-03:00</t>
   </si>
   <si>
     <t>yes</t>
@@ -1014,19 +1014,19 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>3.890040874481201</v>
+        <v>3.987248659133911</v>
       </c>
       <c r="C2">
-        <v>3.966183185577393</v>
+        <v>4.013538360595703</v>
       </c>
       <c r="D2">
-        <v>3.890040874481201</v>
+        <v>3.978673696517944</v>
       </c>
       <c r="E2">
-        <v>3.96146297454834</v>
+        <v>4.008713722229004</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>445263</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1034,19 +1034,19 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>3.963812589645386</v>
+        <v>4.004536151885986</v>
       </c>
       <c r="C3">
-        <v>3.995916604995728</v>
+        <v>4.02608060836792</v>
       </c>
       <c r="D3">
-        <v>3.952318906784058</v>
+        <v>4.002102851867676</v>
       </c>
       <c r="E3">
-        <v>3.961034774780273</v>
+        <v>4.021607875823975</v>
       </c>
       <c r="F3">
-        <v>370687</v>
+        <v>15777</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1054,19 +1054,19 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>3.957036733627319</v>
+        <v>4.02498197555542</v>
       </c>
       <c r="C4">
-        <v>3.987644195556641</v>
+        <v>4.061717033386231</v>
       </c>
       <c r="D4">
-        <v>3.957036733627319</v>
+        <v>4.007715702056885</v>
       </c>
       <c r="E4">
-        <v>3.969970703125</v>
+        <v>4.038901329040527</v>
       </c>
       <c r="F4">
-        <v>35153</v>
+        <v>7179</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1074,19 +1074,19 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>3.974705219268799</v>
+        <v>4.042111396789551</v>
       </c>
       <c r="C5">
-        <v>3.982264995574951</v>
+        <v>4.057770252227783</v>
       </c>
       <c r="D5">
-        <v>3.962608337402344</v>
+        <v>4.012235164642334</v>
       </c>
       <c r="E5">
-        <v>3.979123830795288</v>
+        <v>4.031685829162598</v>
       </c>
       <c r="F5">
-        <v>48358</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1094,19 +1094,19 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>3.972762823104858</v>
+        <v>4.031720161437988</v>
       </c>
       <c r="C6">
-        <v>3.972762823104858</v>
+        <v>4.056142330169678</v>
       </c>
       <c r="D6">
-        <v>3.894567728042603</v>
+        <v>4.026100158691406</v>
       </c>
       <c r="E6">
-        <v>3.934911251068115</v>
+        <v>4.055431365966797</v>
       </c>
       <c r="F6">
-        <v>1375758</v>
+        <v>261344</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1114,19 +1114,19 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>3.943337678909302</v>
+        <v>4.0577712059021</v>
       </c>
       <c r="C7">
-        <v>3.962769508361816</v>
+        <v>4.061976432800293</v>
       </c>
       <c r="D7">
-        <v>3.937843561172485</v>
+        <v>4.036133289337158</v>
       </c>
       <c r="E7">
-        <v>3.957405090332031</v>
+        <v>4.045770645141602</v>
       </c>
       <c r="F7">
-        <v>51635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1134,19 +1134,19 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>3.951130628585816</v>
+        <v>4.048732280731201</v>
       </c>
       <c r="C8">
-        <v>3.958525419235229</v>
+        <v>4.050846576690674</v>
       </c>
       <c r="D8">
-        <v>3.914371490478516</v>
+        <v>4.040666103363037</v>
       </c>
       <c r="E8">
-        <v>3.942400455474854</v>
+        <v>4.043607234954834</v>
       </c>
       <c r="F8">
-        <v>32303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1154,19 +1154,19 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>3.949894666671753</v>
+        <v>4.045163154602051</v>
       </c>
       <c r="C9">
-        <v>3.962707281112671</v>
+        <v>4.058167934417725</v>
       </c>
       <c r="D9">
-        <v>3.931069374084473</v>
+        <v>4.044267654418945</v>
       </c>
       <c r="E9">
-        <v>3.944886207580566</v>
+        <v>4.051960468292236</v>
       </c>
       <c r="F9">
-        <v>5079</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1174,19 +1174,19 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>3.944910526275634</v>
+        <v>4.0468430519104</v>
       </c>
       <c r="C10">
-        <v>3.961597204208374</v>
+        <v>4.050192832946777</v>
       </c>
       <c r="D10">
-        <v>3.920509338378906</v>
+        <v>4.029592037200928</v>
       </c>
       <c r="E10">
-        <v>3.948297262191773</v>
+        <v>4.039022445678711</v>
       </c>
       <c r="F10">
-        <v>4813</v>
+        <v>402393</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1194,25 +1194,22 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>3.948725461959839</v>
+        <v>4.038233757019043</v>
       </c>
       <c r="C11">
-        <v>3.991233587265015</v>
+        <v>4.046557426452637</v>
       </c>
       <c r="D11">
-        <v>3.901171445846558</v>
+        <v>4.032538414001465</v>
       </c>
       <c r="E11">
-        <v>3.914671897888184</v>
+        <v>4.036060810089111</v>
       </c>
       <c r="F11">
-        <v>743350</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>28.51640971634292</v>
-      </c>
-      <c r="N11" t="s">
-        <v>195</v>
+        <v>55.87785908527104</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1220,22 +1217,22 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>3.91279149055481</v>
+        <v>4.0343918800354</v>
       </c>
       <c r="C12">
-        <v>3.958720207214356</v>
+        <v>4.046233654022217</v>
       </c>
       <c r="D12">
-        <v>3.910134077072144</v>
+        <v>4.032435417175293</v>
       </c>
       <c r="E12">
-        <v>3.944967269897461</v>
+        <v>4.03863000869751</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>47.19708103041714</v>
+        <v>57.97373327795795</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1243,22 +1240,22 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>3.920685291290283</v>
+        <v>4.035476207733154</v>
       </c>
       <c r="C13">
-        <v>3.986221075057984</v>
+        <v>4.043861389160156</v>
       </c>
       <c r="D13">
-        <v>3.920685291290283</v>
+        <v>4.031384944915772</v>
       </c>
       <c r="E13">
-        <v>3.985470056533813</v>
+        <v>4.034799575805664</v>
       </c>
       <c r="F13">
-        <v>22343</v>
+        <v>832</v>
       </c>
       <c r="L13">
-        <v>62.09544700631773</v>
+        <v>53.69563900841302</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1266,22 +1263,25 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>3.994243144989014</v>
+        <v>4.035338878631592</v>
       </c>
       <c r="C14">
-        <v>4.0010085105896</v>
+        <v>4.070245265960693</v>
       </c>
       <c r="D14">
-        <v>3.91154956817627</v>
+        <v>4.035338878631592</v>
       </c>
       <c r="E14">
-        <v>3.949564218521118</v>
+        <v>4.070245265960693</v>
       </c>
       <c r="F14">
-        <v>652970</v>
+        <v>6244</v>
       </c>
       <c r="L14">
-        <v>48.45932806530641</v>
+        <v>73.81305036251534</v>
+      </c>
+      <c r="O14" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1289,22 +1289,22 @@
         <v>27</v>
       </c>
       <c r="B15">
-        <v>3.949662446975708</v>
+        <v>4.059096813201904</v>
       </c>
       <c r="C15">
-        <v>3.971774339675903</v>
+        <v>4.076005935668945</v>
       </c>
       <c r="D15">
-        <v>3.936262130737305</v>
+        <v>4.051697254180908</v>
       </c>
       <c r="E15">
-        <v>3.968602895736694</v>
+        <v>4.053935050964356</v>
       </c>
       <c r="F15">
-        <v>13277</v>
+        <v>16712</v>
       </c>
       <c r="L15">
-        <v>54.4289190905058</v>
+        <v>60.26022807620642</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1312,1654 +1312,1642 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>3.96840763092041</v>
+        <v>4.058369636535645</v>
       </c>
       <c r="C16">
-        <v>3.979564666748047</v>
+        <v>4.075696468353272</v>
       </c>
       <c r="D16">
-        <v>3.963504314422608</v>
+        <v>4.053369998931885</v>
       </c>
       <c r="E16">
-        <v>3.972645521163941</v>
+        <v>4.06092357635498</v>
       </c>
       <c r="F16">
-        <v>26657</v>
+        <v>18528</v>
       </c>
       <c r="L16">
-        <v>55.65582246745034</v>
+        <v>63.49146894832003</v>
       </c>
       <c r="M16">
-        <v>54.33860251472363</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>64.1374545513352</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B17">
-        <v>3.969859600067138</v>
+        <v>4.078051090240479</v>
       </c>
       <c r="C17">
-        <v>3.991111278533936</v>
+        <v>4.078051090240479</v>
       </c>
       <c r="D17">
-        <v>3.911176681518554</v>
+        <v>4.045464515686035</v>
       </c>
       <c r="E17">
-        <v>3.964355230331421</v>
+        <v>4.050934791564941</v>
       </c>
       <c r="F17">
-        <v>893359</v>
+        <v>70366</v>
       </c>
       <c r="L17">
-        <v>52.40105583342036</v>
+        <v>56.15014367945795</v>
       </c>
       <c r="M17">
-        <v>51.81498826471681</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>58.21185538498685</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B18">
-        <v>3.962576389312744</v>
+        <v>4.049937725067139</v>
       </c>
       <c r="C18">
-        <v>4.002373218536377</v>
+        <v>4.071482658386231</v>
       </c>
       <c r="D18">
-        <v>3.959140062332153</v>
+        <v>4.042916297912598</v>
       </c>
       <c r="E18">
-        <v>3.975556612014771</v>
+        <v>4.054049491882324</v>
       </c>
       <c r="F18">
-        <v>13008</v>
+        <v>6002</v>
       </c>
       <c r="L18">
-        <v>56.28681642095253</v>
+        <v>57.85943307678305</v>
       </c>
       <c r="M18">
-        <v>54.86508522695166</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>59.46931146871447</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B19">
-        <v>3.972237825393677</v>
+        <v>4.053813934326172</v>
       </c>
       <c r="C19">
-        <v>3.976062774658203</v>
+        <v>4.064188957214356</v>
       </c>
       <c r="D19">
-        <v>3.922622442245483</v>
+        <v>4.041526794433594</v>
       </c>
       <c r="E19">
-        <v>3.945573568344116</v>
+        <v>4.051355361938477</v>
       </c>
       <c r="F19">
-        <v>56517</v>
+        <v>9299</v>
       </c>
       <c r="L19">
-        <v>45.18016429691912</v>
+        <v>55.74493341843083</v>
       </c>
       <c r="M19">
-        <v>46.39872854198651</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>57.84782355309626</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B20">
-        <v>3.94318699836731</v>
+        <v>4.033242225646973</v>
       </c>
       <c r="C20">
-        <v>3.980213642120361</v>
+        <v>4.035077095031738</v>
       </c>
       <c r="D20">
-        <v>3.911851882934569</v>
+        <v>3.987824678421021</v>
       </c>
       <c r="E20">
-        <v>3.953500270843506</v>
+        <v>4.006327629089356</v>
       </c>
       <c r="F20">
-        <v>1281414</v>
+        <v>445782</v>
       </c>
       <c r="L20">
-        <v>48.21905988529419</v>
+        <v>33.04101276349949</v>
       </c>
       <c r="M20">
-        <v>48.65454636218485</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>38.80431242971689</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B21">
-        <v>3.951489686965942</v>
+        <v>4.004206657409668</v>
       </c>
       <c r="C21">
-        <v>3.997167825698853</v>
+        <v>4.022145748138428</v>
       </c>
       <c r="D21">
-        <v>3.937574148178101</v>
+        <v>4.00203800201416</v>
       </c>
       <c r="E21">
-        <v>3.975879192352295</v>
+        <v>4.020078182220459</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>2147</v>
       </c>
       <c r="H21">
-        <v>3.957513964176178</v>
+        <v>4.040702033042908</v>
       </c>
       <c r="L21">
-        <v>55.97108466646522</v>
+        <v>41.26006152105997</v>
       </c>
       <c r="M21">
-        <v>54.47919987962451</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>44.78240031091485</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B22">
-        <v>3.990612506866455</v>
+        <v>4.017149925231934</v>
       </c>
       <c r="C22">
-        <v>3.991479158401489</v>
+        <v>4.023760318756104</v>
       </c>
       <c r="D22">
-        <v>3.954147100448608</v>
+        <v>4.005350112915039</v>
       </c>
       <c r="E22">
-        <v>3.977668523788452</v>
+        <v>4.015066623687744</v>
       </c>
       <c r="F22">
-        <v>6418</v>
+        <v>47346</v>
       </c>
       <c r="G22">
-        <v>3.958473705110096</v>
+        <v>4.03948129926409</v>
       </c>
       <c r="H22">
-        <v>3.958324241638183</v>
+        <v>4.041019678115845</v>
       </c>
       <c r="L22">
-        <v>56.5561145393925</v>
+        <v>39.28299001002996</v>
       </c>
       <c r="M22">
-        <v>54.91954452398411</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>43.1287426926508</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B23">
-        <v>3.964691400527954</v>
+        <v>4.013563632965088</v>
       </c>
       <c r="C23">
-        <v>3.997047662734986</v>
+        <v>4.020240306854248</v>
       </c>
       <c r="D23">
-        <v>3.916114807128906</v>
+        <v>4.010095119476318</v>
       </c>
       <c r="E23">
-        <v>3.916114807128906</v>
+        <v>4.020240306854248</v>
       </c>
       <c r="F23">
-        <v>900743</v>
+        <v>49289</v>
       </c>
       <c r="G23">
-        <v>3.954622896202715</v>
+        <v>4.037732118135922</v>
       </c>
       <c r="H23">
-        <v>3.956078243255615</v>
+        <v>4.040951299667358</v>
       </c>
       <c r="L23">
-        <v>37.34979090887042</v>
+        <v>42.48381635712487</v>
       </c>
       <c r="M23">
-        <v>40.43049092887713</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>45.37143516268571</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B24">
-        <v>3.922604322433472</v>
+        <v>4.022744655609131</v>
       </c>
       <c r="C24">
-        <v>3.944597005844116</v>
+        <v>4.023547172546387</v>
       </c>
       <c r="D24">
-        <v>3.916710138320923</v>
+        <v>4.00028133392334</v>
       </c>
       <c r="E24">
-        <v>3.925295352935791</v>
+        <v>4.008755207061768</v>
       </c>
       <c r="F24">
-        <v>482801</v>
+        <v>9416</v>
       </c>
       <c r="G24">
-        <v>3.951956755905722</v>
+        <v>4.035097853492817</v>
       </c>
       <c r="H24">
-        <v>3.953844475746155</v>
+        <v>4.039443993568421</v>
       </c>
       <c r="L24">
-        <v>40.72722351347009</v>
+        <v>37.54129602598</v>
       </c>
       <c r="M24">
-        <v>42.85214406586405</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>41.46255313433166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B25">
-        <v>3.925103425979614</v>
+        <v>4.009475231170654</v>
       </c>
       <c r="C25">
-        <v>3.979245185852051</v>
+        <v>4.019331932067871</v>
       </c>
       <c r="D25">
-        <v>3.92289137840271</v>
+        <v>4.003896236419678</v>
       </c>
       <c r="E25">
-        <v>3.964330434799193</v>
+        <v>4.005487442016602</v>
       </c>
       <c r="F25">
-        <v>891365</v>
+        <v>9900</v>
       </c>
       <c r="G25">
-        <v>3.953081635805128</v>
+        <v>4.03240599790407</v>
       </c>
       <c r="H25">
-        <v>3.95310480594635</v>
+        <v>4.03813407421112</v>
       </c>
       <c r="L25">
-        <v>52.87851080647582</v>
+        <v>36.19350022493671</v>
       </c>
       <c r="M25">
-        <v>51.8206505089564</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>40.39617549456846</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B26">
-        <v>3.960936784744263</v>
+        <v>4.005152225494385</v>
       </c>
       <c r="C26">
-        <v>3.985362052917481</v>
+        <v>4.010035037994385</v>
       </c>
       <c r="D26">
-        <v>3.941421031951904</v>
+        <v>3.979846477508545</v>
       </c>
       <c r="E26">
-        <v>3.969935894012451</v>
+        <v>3.988036632537842</v>
       </c>
       <c r="F26">
-        <v>42770</v>
+        <v>51746</v>
       </c>
       <c r="G26">
-        <v>3.954613841096703</v>
+        <v>4.028372419234413</v>
       </c>
       <c r="H26">
-        <v>3.954856038093567</v>
+        <v>4.034764337539673</v>
       </c>
       <c r="L26">
-        <v>54.38909296703905</v>
+        <v>29.77195594238269</v>
       </c>
       <c r="M26">
-        <v>52.96223394011519</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>35.19099312860656</v>
+      </c>
+      <c r="N26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B27">
-        <v>3.974307298660278</v>
+        <v>3.988721609115601</v>
       </c>
       <c r="C27">
-        <v>3.986536026000977</v>
+        <v>3.999701738357544</v>
       </c>
       <c r="D27">
-        <v>3.957366943359375</v>
+        <v>3.974085330963135</v>
       </c>
       <c r="E27">
-        <v>3.972195148468018</v>
+        <v>3.996003150939941</v>
       </c>
       <c r="F27">
-        <v>43320</v>
+        <v>4856</v>
       </c>
       <c r="G27">
-        <v>3.956212141766822</v>
+        <v>4.025429758480369</v>
       </c>
       <c r="H27">
-        <v>3.955595541000366</v>
+        <v>4.03227596282959</v>
       </c>
       <c r="L27">
-        <v>55.04257439844581</v>
+        <v>35.63674510748883</v>
       </c>
       <c r="M27">
-        <v>53.44107163838352</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>39.05193523771981</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B28">
-        <v>3.973831415176392</v>
+        <v>3.995230674743652</v>
       </c>
       <c r="C28">
-        <v>4.012106895446777</v>
+        <v>4.006964206695557</v>
       </c>
       <c r="D28">
-        <v>3.959620475769043</v>
+        <v>3.814192771911621</v>
       </c>
       <c r="E28">
-        <v>3.976983308792114</v>
+        <v>3.905450344085693</v>
       </c>
       <c r="F28">
-        <v>48235</v>
+        <v>947633</v>
       </c>
       <c r="G28">
-        <v>3.958100429678212</v>
+        <v>4.014522538989944</v>
       </c>
       <c r="H28">
-        <v>3.957324683666229</v>
+        <v>4.025368118286133</v>
       </c>
       <c r="L28">
-        <v>56.52760091836696</v>
+        <v>17.23336096656347</v>
       </c>
       <c r="M28">
-        <v>54.49827307827326</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>22.5831738404288</v>
+      </c>
+      <c r="N28" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B29">
-        <v>3.977900743484497</v>
+        <v>3.906953096389771</v>
       </c>
       <c r="C29">
-        <v>3.98349404335022</v>
+        <v>3.965299606323242</v>
       </c>
       <c r="D29">
-        <v>3.917927742004395</v>
+        <v>3.898057222366333</v>
       </c>
       <c r="E29">
-        <v>3.921668767929077</v>
+        <v>3.95996618270874</v>
       </c>
       <c r="F29">
-        <v>1073747</v>
+        <v>146782</v>
       </c>
       <c r="G29">
-        <v>3.95478846042829</v>
+        <v>4.009562870237107</v>
       </c>
       <c r="H29">
-        <v>3.956163811683655</v>
+        <v>4.020768404006958</v>
       </c>
       <c r="L29">
-        <v>39.54928631321658</v>
+        <v>38.68058054789611</v>
       </c>
       <c r="M29">
-        <v>42.49396057897362</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>39.20538976374555</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B30">
-        <v>3.928963422775269</v>
+        <v>3.962329626083374</v>
       </c>
       <c r="C30">
-        <v>3.97348165512085</v>
+        <v>3.987205982208252</v>
       </c>
       <c r="D30">
-        <v>3.908529043197632</v>
+        <v>3.957917451858521</v>
       </c>
       <c r="E30">
-        <v>3.959740400314331</v>
+        <v>3.982212066650391</v>
       </c>
       <c r="F30">
-        <v>555388</v>
+        <v>50115</v>
       </c>
       <c r="G30">
-        <v>3.955238636781567</v>
+        <v>4.007076433547406</v>
       </c>
       <c r="H30">
-        <v>3.956735968589783</v>
+        <v>4.017927885055542</v>
       </c>
       <c r="L30">
-        <v>50.95544756967041</v>
+        <v>45.19955468858037</v>
       </c>
       <c r="M30">
-        <v>50.56510371006139</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>44.44708826423959</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B31">
-        <v>3.956466674804688</v>
+        <v>3.987086534500122</v>
       </c>
       <c r="C31">
-        <v>3.978123664855957</v>
+        <v>4.008759498596191</v>
       </c>
       <c r="D31">
-        <v>3.914096832275391</v>
+        <v>3.987086534500122</v>
       </c>
       <c r="E31">
-        <v>3.956859588623047</v>
+        <v>3.994213104248047</v>
       </c>
       <c r="F31">
-        <v>336126</v>
+        <v>21611</v>
       </c>
       <c r="G31">
-        <v>3.955385996039883</v>
+        <v>4.005907039974737</v>
       </c>
       <c r="H31">
-        <v>3.958845353126526</v>
+        <v>4.015835499763488</v>
       </c>
       <c r="I31">
-        <v>3.956369050343831</v>
+        <v>4.022982390721639</v>
       </c>
       <c r="L31">
-        <v>50.14993130833626</v>
+        <v>48.52104218242103</v>
       </c>
       <c r="M31">
-        <v>49.99332019830698</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>47.09705614845122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B32">
-        <v>3.969176530838013</v>
+        <v>4.000418186187744</v>
       </c>
       <c r="C32">
-        <v>3.981490135192871</v>
+        <v>4.018339157104492</v>
       </c>
       <c r="D32">
-        <v>3.95544958114624</v>
+        <v>3.947625637054443</v>
       </c>
       <c r="E32">
-        <v>3.973546743392944</v>
+        <v>4.018339157104492</v>
       </c>
       <c r="F32">
-        <v>74912</v>
+        <v>1008745</v>
       </c>
       <c r="G32">
-        <v>3.957036973071979</v>
+        <v>4.007037232441078</v>
       </c>
       <c r="H32">
-        <v>3.9602743268013</v>
+        <v>4.014820957183838</v>
       </c>
       <c r="I32">
-        <v>3.956771842638652</v>
+        <v>4.023303238550822</v>
       </c>
       <c r="L32">
-        <v>54.80566020734264</v>
+        <v>54.72698730146713</v>
       </c>
       <c r="M32">
-        <v>53.28834073760959</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+        <v>52.04908167449244</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B33">
-        <v>3.972534418106079</v>
+        <v>4.015218257904053</v>
       </c>
       <c r="C33">
-        <v>3.983996868133545</v>
+        <v>4.021584510803223</v>
       </c>
       <c r="D33">
-        <v>3.964014530181885</v>
+        <v>4.008022785186768</v>
       </c>
       <c r="E33">
-        <v>3.977328538894653</v>
+        <v>4.012916088104248</v>
       </c>
       <c r="F33">
-        <v>8713</v>
+        <v>1228</v>
       </c>
       <c r="G33">
-        <v>3.95888166087404</v>
+        <v>4.007571673865002</v>
       </c>
       <c r="H33">
-        <v>3.959867250919342</v>
+        <v>4.013726782798767</v>
       </c>
       <c r="I33">
-        <v>3.957314968109131</v>
+        <v>4.023013512293498</v>
       </c>
       <c r="L33">
-        <v>55.85678469800974</v>
+        <v>53.10797805396144</v>
       </c>
       <c r="M33">
-        <v>54.02765183142238</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+        <v>50.89581784517458</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B34">
-        <v>3.975890398025513</v>
+        <v>4.01294994354248</v>
       </c>
       <c r="C34">
-        <v>3.981642484664917</v>
+        <v>4.03280782699585</v>
       </c>
       <c r="D34">
-        <v>3.960727691650391</v>
+        <v>4.0106201171875</v>
       </c>
       <c r="E34">
-        <v>3.97729754447937</v>
+        <v>4.027049064636231</v>
       </c>
       <c r="F34">
-        <v>67978</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>3.960555832110888</v>
+        <v>4.009342345753296</v>
       </c>
       <c r="H34">
-        <v>3.961253917217255</v>
+        <v>4.011566972732544</v>
       </c>
       <c r="I34">
-        <v>3.957559196154277</v>
+        <v>4.022618436813355</v>
       </c>
       <c r="L34">
-        <v>55.84480927536482</v>
+        <v>56.85050182614181</v>
       </c>
       <c r="M34">
-        <v>54.02010564642067</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+        <v>53.77061313194633</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B35">
-        <v>3.974097013473511</v>
+        <v>4.029244899749756</v>
       </c>
       <c r="C35">
-        <v>3.984190464019776</v>
+        <v>4.04380464553833</v>
       </c>
       <c r="D35">
-        <v>3.964572429656982</v>
+        <v>4.01364278793335</v>
       </c>
       <c r="E35">
-        <v>3.970942497253418</v>
+        <v>4.04380464553833</v>
       </c>
       <c r="F35">
-        <v>498</v>
+        <v>2809</v>
       </c>
       <c r="G35">
-        <v>3.961500074396573</v>
+        <v>4.012475282097389</v>
       </c>
       <c r="H35">
-        <v>3.961370897293091</v>
+        <v>4.011060452461242</v>
       </c>
       <c r="I35">
-        <v>3.957286485036214</v>
+        <v>4.023022397359212</v>
       </c>
       <c r="L35">
-        <v>53.21319571629648</v>
+        <v>61.00183987430117</v>
       </c>
       <c r="M35">
-        <v>52.40390590939193</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+        <v>56.98583173728212</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B36">
-        <v>3.974866628646851</v>
+        <v>4.046148300170898</v>
       </c>
       <c r="C36">
-        <v>3.983795881271361</v>
+        <v>4.052895069122314</v>
       </c>
       <c r="D36">
-        <v>3.963951587677002</v>
+        <v>4.000088214874268</v>
       </c>
       <c r="E36">
-        <v>3.966307163238525</v>
+        <v>4.037826538085938</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>485988</v>
       </c>
       <c r="G36">
-        <v>3.961937082473114</v>
+        <v>4.014779941732712</v>
       </c>
       <c r="H36">
-        <v>3.96105397939682</v>
+        <v>4.009905600547791</v>
       </c>
       <c r="I36">
-        <v>3.958333015441895</v>
+        <v>4.022435569763184</v>
       </c>
       <c r="L36">
-        <v>51.23214050642218</v>
+        <v>58.73376723915392</v>
       </c>
       <c r="M36">
-        <v>51.20063914746419</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+        <v>55.50264789129416</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B37">
-        <v>3.968468189239502</v>
+        <v>4.03319787979126</v>
       </c>
       <c r="C37">
-        <v>3.973763942718506</v>
+        <v>4.053991794586182</v>
       </c>
       <c r="D37">
-        <v>3.964236736297608</v>
+        <v>4.027108192443848</v>
       </c>
       <c r="E37">
-        <v>3.970540046691895</v>
+        <v>4.051424026489258</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>9222</v>
       </c>
       <c r="G37">
-        <v>3.962719170129366</v>
+        <v>4.018111222165125</v>
       </c>
       <c r="H37">
-        <v>3.961363220214844</v>
+        <v>4.009930062294006</v>
       </c>
       <c r="I37">
-        <v>3.958770847320557</v>
+        <v>4.022624015808105</v>
       </c>
       <c r="L37">
-        <v>53.02860443213866</v>
+        <v>62.31874816853045</v>
       </c>
       <c r="M37">
-        <v>52.2782321095039</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+        <v>58.16951086535728</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B38">
-        <v>3.972258567810059</v>
+        <v>4.051102638244629</v>
       </c>
       <c r="C38">
-        <v>3.996204614639282</v>
+        <v>4.060157299041748</v>
       </c>
       <c r="D38">
-        <v>3.96563458442688</v>
+        <v>4.038615226745605</v>
       </c>
       <c r="E38">
-        <v>3.974804162979126</v>
+        <v>4.055235385894775</v>
       </c>
       <c r="F38">
-        <v>55681</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>3.963817805842981</v>
+        <v>4.021486146140547</v>
       </c>
       <c r="H38">
-        <v>3.961325597763062</v>
+        <v>4.009989356994629</v>
       </c>
       <c r="I38">
-        <v>3.959850970904033</v>
+        <v>4.023011620839437</v>
       </c>
       <c r="L38">
-        <v>54.91095743620053</v>
+        <v>63.32348836674181</v>
       </c>
       <c r="M38">
-        <v>53.39471781362422</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+        <v>58.91283561527577</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B39">
-        <v>3.970213174819945</v>
+        <v>4.052771091461182</v>
       </c>
       <c r="C39">
-        <v>3.987451314926148</v>
+        <v>4.071582794189453</v>
       </c>
       <c r="D39">
-        <v>3.959189891815186</v>
+        <v>4.02372407913208</v>
       </c>
       <c r="E39">
-        <v>3.983955383300781</v>
+        <v>4.03678560256958</v>
       </c>
       <c r="F39">
-        <v>23239</v>
+        <v>271312</v>
       </c>
       <c r="G39">
-        <v>3.965648494702781</v>
+        <v>4.022877005815913</v>
       </c>
       <c r="H39">
-        <v>3.963244688510895</v>
+        <v>4.009260869026184</v>
       </c>
       <c r="I39">
-        <v>3.961153276761373</v>
+        <v>4.022505791982015</v>
       </c>
       <c r="L39">
-        <v>58.88865523200746</v>
+        <v>55.29428285309077</v>
       </c>
       <c r="M39">
-        <v>55.78547913218831</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+        <v>53.91806026469244</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B40">
-        <v>3.977716684341431</v>
+        <v>4.036081314086914</v>
       </c>
       <c r="C40">
-        <v>3.988512992858887</v>
+        <v>4.060256004333496</v>
       </c>
       <c r="D40">
-        <v>3.968380928039551</v>
+        <v>4.034209251403809</v>
       </c>
       <c r="E40">
-        <v>3.96887469291687</v>
+        <v>4.059340953826904</v>
       </c>
       <c r="F40">
-        <v>8253</v>
+        <v>1094204</v>
       </c>
       <c r="G40">
-        <v>3.965941785449516</v>
+        <v>4.026191910180549</v>
       </c>
       <c r="H40">
-        <v>3.964013409614563</v>
+        <v>4.011911535263062</v>
       </c>
       <c r="I40">
-        <v>3.961839191118876</v>
+        <v>4.023183075586955</v>
       </c>
       <c r="L40">
-        <v>50.61111318267776</v>
+        <v>61.93277972719905</v>
       </c>
       <c r="M40">
-        <v>51.13059553293157</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
+        <v>58.54530782915664</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B41">
-        <v>3.972440004348755</v>
+        <v>4.059684276580811</v>
       </c>
       <c r="C41">
-        <v>3.987947463989258</v>
+        <v>4.063249588012695</v>
       </c>
       <c r="D41">
-        <v>3.967031717300415</v>
+        <v>4.05565881729126</v>
       </c>
       <c r="E41">
-        <v>3.971723556518554</v>
+        <v>4.057466506958008</v>
       </c>
       <c r="F41">
-        <v>22659</v>
+        <v>451317</v>
       </c>
       <c r="G41">
-        <v>3.966467401001247</v>
+        <v>4.029035055342136</v>
       </c>
       <c r="H41">
-        <v>3.963805627822876</v>
+        <v>4.013780951499939</v>
       </c>
       <c r="I41">
-        <v>3.963740913073222</v>
+        <v>4.023896598815918</v>
       </c>
       <c r="L41">
-        <v>52.04369177412008</v>
+        <v>61.08474137967478</v>
       </c>
       <c r="M41">
-        <v>51.94633096569448</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+        <v>58.023864807374</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B42">
-        <v>3.969704389572144</v>
+        <v>4.05778169631958</v>
       </c>
       <c r="C42">
-        <v>4.013505458831787</v>
+        <v>4.064543724060059</v>
       </c>
       <c r="D42">
-        <v>3.969704389572144</v>
+        <v>4.033920288085938</v>
       </c>
       <c r="E42">
-        <v>3.994450569152832</v>
+        <v>4.047882556915283</v>
       </c>
       <c r="F42">
-        <v>457058</v>
+        <v>709651</v>
       </c>
       <c r="G42">
-        <v>3.969011325378664</v>
+        <v>4.030748464576058</v>
       </c>
       <c r="H42">
-        <v>3.964644730091095</v>
+        <v>4.015421748161316</v>
       </c>
       <c r="I42">
-        <v>3.965390356381734</v>
+        <v>4.024205017089844</v>
       </c>
       <c r="L42">
-        <v>61.94919036269046</v>
+        <v>56.62483448329721</v>
       </c>
       <c r="M42">
-        <v>57.97322706048132</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
+        <v>55.31127261905695</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B43">
-        <v>3.987248659133911</v>
+        <v>4.050301551818848</v>
       </c>
       <c r="C43">
-        <v>4.013538360595703</v>
+        <v>4.052661418914795</v>
       </c>
       <c r="D43">
-        <v>3.978673696517944</v>
+        <v>4.03585147857666</v>
       </c>
       <c r="E43">
-        <v>4.008713722229004</v>
+        <v>4.038536548614502</v>
       </c>
       <c r="F43">
-        <v>551699</v>
+        <v>12933</v>
       </c>
       <c r="G43">
-        <v>3.97262063418324</v>
+        <v>4.031456472215916</v>
       </c>
       <c r="H43">
-        <v>3.9692746758461</v>
+        <v>4.016336560249329</v>
       </c>
       <c r="I43">
-        <v>3.966165145238241</v>
+        <v>4.024329582850139</v>
       </c>
       <c r="L43">
-        <v>66.79201588454656</v>
+        <v>52.42559570142126</v>
       </c>
       <c r="M43">
-        <v>61.25731473579319</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
+        <v>52.72280539697348</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B44">
-        <v>4.004536151885986</v>
+        <v>4.040127754211426</v>
       </c>
       <c r="C44">
-        <v>4.02608060836792</v>
+        <v>4.049064159393311</v>
       </c>
       <c r="D44">
-        <v>4.002102851867676</v>
+        <v>4.018638134002686</v>
       </c>
       <c r="E44">
-        <v>4.021607875823975</v>
+        <v>4.038679122924805</v>
       </c>
       <c r="F44">
-        <v>15777</v>
+        <v>417650</v>
       </c>
       <c r="G44">
-        <v>3.977074019786943</v>
+        <v>4.032113076825814</v>
       </c>
       <c r="H44">
-        <v>3.974090301990509</v>
+        <v>4.01783275604248</v>
       </c>
       <c r="I44">
-        <v>3.968566600481669</v>
+        <v>4.023277378082275</v>
       </c>
       <c r="L44">
-        <v>70.59780323708189</v>
+        <v>52.48606741032278</v>
       </c>
       <c r="M44">
-        <v>63.99634757473592</v>
-      </c>
-      <c r="O44" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
+        <v>52.75912547291708</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B45">
-        <v>4.02498197555542</v>
+        <v>4.023390769958496</v>
       </c>
       <c r="C45">
-        <v>4.061717033386231</v>
+        <v>4.082073211669922</v>
       </c>
       <c r="D45">
-        <v>4.007715702056885</v>
+        <v>4.023390769958496</v>
       </c>
       <c r="E45">
-        <v>4.038901329040527</v>
+        <v>4.077766895294189</v>
       </c>
       <c r="F45">
-        <v>7179</v>
+        <v>8401</v>
       </c>
       <c r="G45">
-        <v>3.982694684264541</v>
+        <v>4.036263423959303</v>
       </c>
       <c r="H45">
-        <v>3.977818846702576</v>
+        <v>4.02144672870636</v>
       </c>
       <c r="I45">
-        <v>3.970909881591797</v>
+        <v>4.02407177289327</v>
       </c>
       <c r="L45">
-        <v>74.93246353365284</v>
+        <v>65.86742329536133</v>
       </c>
       <c r="M45">
-        <v>67.3321592056171</v>
-      </c>
-      <c r="O45" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
+        <v>61.49319853154959</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B46">
-        <v>4.042111396789551</v>
+        <v>4.077842235565186</v>
       </c>
       <c r="C46">
-        <v>4.057770252227783</v>
+        <v>4.081790447235107</v>
       </c>
       <c r="D46">
-        <v>4.012235164642334</v>
+        <v>3.936596632003784</v>
       </c>
       <c r="E46">
-        <v>4.031685829162598</v>
+        <v>4.017436027526856</v>
       </c>
       <c r="F46">
-        <v>1377</v>
+        <v>501151</v>
       </c>
       <c r="G46">
-        <v>3.987148424709819</v>
+        <v>4.034551842465445</v>
       </c>
       <c r="H46">
-        <v>3.980906343460083</v>
+        <v>4.022916698455811</v>
       </c>
       <c r="I46">
-        <v>3.972877891858419</v>
+        <v>4.022622187932332</v>
       </c>
       <c r="L46">
-        <v>70.08267104363699</v>
+        <v>44.23529513847404</v>
       </c>
       <c r="M46">
-        <v>64.64104153890032</v>
-      </c>
-      <c r="O46" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
+        <v>47.03782143212312</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B47">
-        <v>4.031720161437988</v>
+        <v>4.023036479949951</v>
       </c>
       <c r="C47">
-        <v>4.056142330169678</v>
+        <v>4.023036479949951</v>
       </c>
       <c r="D47">
-        <v>4.026100158691406</v>
+        <v>4.006032943725586</v>
       </c>
       <c r="E47">
-        <v>4.055431365966797</v>
+        <v>4.020694732666016</v>
       </c>
       <c r="F47">
-        <v>261344</v>
+        <v>3578</v>
       </c>
       <c r="G47">
-        <v>3.99335596482409</v>
+        <v>4.033292105210951</v>
       </c>
       <c r="H47">
-        <v>3.985068154335022</v>
+        <v>4.024151277542114</v>
       </c>
       <c r="I47">
-        <v>3.975913763046265</v>
+        <v>4.021614185969034</v>
       </c>
       <c r="L47">
-        <v>75.86570619140008</v>
+        <v>45.32639450469683</v>
       </c>
       <c r="M47">
-        <v>69.02814268328805</v>
-      </c>
-      <c r="O47" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
+        <v>47.75225210913651</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B48">
-        <v>4.0577712059021</v>
+        <v>4.026575565338135</v>
       </c>
       <c r="C48">
-        <v>4.061976432800293</v>
+        <v>4.048302173614502</v>
       </c>
       <c r="D48">
-        <v>4.036133289337158</v>
+        <v>4.016805171966553</v>
       </c>
       <c r="E48">
-        <v>4.045770645141602</v>
+        <v>4.041217803955078</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>9124</v>
       </c>
       <c r="G48">
-        <v>3.998120935762045</v>
+        <v>4.034012623278599</v>
       </c>
       <c r="H48">
-        <v>3.988507521152497</v>
+        <v>4.030939650535584</v>
       </c>
       <c r="I48">
-        <v>3.978254230817159</v>
+        <v>4.021186463038126</v>
       </c>
       <c r="L48">
-        <v>69.6991778349408</v>
+        <v>51.98295840114817</v>
       </c>
       <c r="M48">
-        <v>65.4691498907316</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
+        <v>52.13174495402048</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B49">
-        <v>4.048732280731201</v>
+        <v>4.05397891998291</v>
       </c>
       <c r="C49">
-        <v>4.050846576690674</v>
+        <v>4.075954914093018</v>
       </c>
       <c r="D49">
-        <v>4.040666103363037</v>
+        <v>4.039493560791016</v>
       </c>
       <c r="E49">
-        <v>4.043607234954834</v>
+        <v>4.05051326751709</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>25176</v>
       </c>
       <c r="G49">
-        <v>4.002256053870481</v>
+        <v>4.035512681845734</v>
       </c>
       <c r="H49">
-        <v>3.994604444503784</v>
+        <v>4.035467004776001</v>
       </c>
       <c r="I49">
-        <v>3.981522019704183</v>
+        <v>4.021158393224081</v>
       </c>
       <c r="L49">
-        <v>68.30055276894393</v>
+        <v>54.78780554693979</v>
       </c>
       <c r="M49">
-        <v>64.66509652875781</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
+        <v>54.01198913672103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B50">
-        <v>4.045163154602051</v>
+        <v>4.039120197296143</v>
       </c>
       <c r="C50">
-        <v>4.058167934417725</v>
+        <v>4.06186580657959</v>
       </c>
       <c r="D50">
-        <v>4.044267654418945</v>
+        <v>4.031206130981445</v>
       </c>
       <c r="E50">
-        <v>4.051960468292236</v>
+        <v>4.03994083404541</v>
       </c>
       <c r="F50">
-        <v>1155</v>
+        <v>92442</v>
       </c>
       <c r="G50">
-        <v>4.006774636999731</v>
+        <v>4.035915241136614</v>
       </c>
       <c r="H50">
-        <v>3.999215447902679</v>
+        <v>4.038353443145752</v>
       </c>
       <c r="I50">
-        <v>3.984804026285807</v>
+        <v>4.022278833389282</v>
       </c>
       <c r="L50">
-        <v>70.84209986334436</v>
+        <v>50.97759011715716</v>
       </c>
       <c r="M50">
-        <v>66.38190443262187</v>
-      </c>
-      <c r="O50" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
+        <v>51.53264025483987</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B51">
-        <v>4.0468430519104</v>
+        <v>4.047986030578613</v>
       </c>
       <c r="C51">
-        <v>4.050192832946777</v>
+        <v>4.063950061798096</v>
       </c>
       <c r="D51">
-        <v>4.029592037200928</v>
+        <v>4.041772365570068</v>
       </c>
       <c r="E51">
-        <v>4.039022445678711</v>
+        <v>4.060905456542969</v>
       </c>
       <c r="F51">
-        <v>402393</v>
+        <v>3313</v>
       </c>
       <c r="G51">
-        <v>4.009706255970547</v>
+        <v>4.038187078900828</v>
       </c>
       <c r="H51">
-        <v>4.003323590755462</v>
+        <v>4.041688060760498</v>
       </c>
       <c r="I51">
-        <v>3.986908801396688</v>
+        <v>4.023639742533366</v>
       </c>
       <c r="L51">
-        <v>62.15827175055298</v>
+        <v>57.56158374716385</v>
       </c>
       <c r="M51">
-        <v>61.40542183025067</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
+        <v>55.85957867503933</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B52">
-        <v>4.038233757019043</v>
+        <v>4.060749053955078</v>
       </c>
       <c r="C52">
-        <v>4.046557426452637</v>
+        <v>4.065542221069336</v>
       </c>
       <c r="D52">
-        <v>4.032538414001465</v>
+        <v>4.044419765472412</v>
       </c>
       <c r="E52">
-        <v>4.036060810089111</v>
+        <v>4.059890747070312</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>21877</v>
       </c>
       <c r="G52">
-        <v>4.01210212452678</v>
+        <v>4.040160139643508</v>
       </c>
       <c r="H52">
-        <v>4.006449294090271</v>
+        <v>4.043765640258789</v>
       </c>
       <c r="I52">
-        <v>3.988855210940043</v>
+        <v>4.025133879979451</v>
       </c>
       <c r="L52">
-        <v>60.25615383284534</v>
+        <v>57.14368585052122</v>
       </c>
       <c r="M52">
-        <v>60.29119132187436</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
+        <v>55.60084551097799</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B53">
-        <v>4.0343918800354</v>
+        <v>4.061551094055176</v>
       </c>
       <c r="C53">
-        <v>4.046233654022217</v>
+        <v>4.063464641571045</v>
       </c>
       <c r="D53">
-        <v>4.032435417175293</v>
+        <v>4.042523860931396</v>
       </c>
       <c r="E53">
-        <v>4.03863000869751</v>
+        <v>4.058466911315918</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>2526</v>
       </c>
       <c r="G53">
-        <v>4.014513750360483</v>
+        <v>4.041824391613726</v>
       </c>
       <c r="H53">
-        <v>4.009514367580413</v>
+        <v>4.046043181419373</v>
       </c>
       <c r="I53">
-        <v>3.99293905099233</v>
+        <v>4.026408100128174</v>
       </c>
       <c r="L53">
-        <v>61.40866950003458</v>
+        <v>56.49620426234821</v>
       </c>
       <c r="M53">
-        <v>60.95311131936081</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15">
+        <v>55.21438109199675</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B54">
-        <v>4.035476207733154</v>
+        <v>4.058699131011963</v>
       </c>
       <c r="C54">
-        <v>4.043861389160156</v>
+        <v>4.066493511199951</v>
       </c>
       <c r="D54">
-        <v>4.031384944915772</v>
+        <v>4.042450904846191</v>
       </c>
       <c r="E54">
-        <v>4.034799575805664</v>
+        <v>4.05043363571167</v>
       </c>
       <c r="F54">
-        <v>832</v>
+        <v>1727</v>
       </c>
       <c r="G54">
-        <v>4.016357916310045</v>
+        <v>4.042607050168084</v>
       </c>
       <c r="H54">
-        <v>4.012389469146728</v>
+        <v>4.047212409973144</v>
       </c>
       <c r="I54">
-        <v>3.996589191754659</v>
+        <v>4.027797381083171</v>
       </c>
       <c r="L54">
-        <v>58.56038372523022</v>
+        <v>52.70565875850469</v>
       </c>
       <c r="M54">
-        <v>59.36427672168541</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15">
+        <v>52.97703473342395</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B55">
-        <v>4.035338878631592</v>
+        <v>4.060650825500488</v>
       </c>
       <c r="C55">
-        <v>4.070245265960693</v>
+        <v>4.065515995025635</v>
       </c>
       <c r="D55">
-        <v>4.035338878631592</v>
+        <v>4.026196479797363</v>
       </c>
       <c r="E55">
-        <v>4.070245265960693</v>
+        <v>4.026196479797363</v>
       </c>
       <c r="F55">
-        <v>6244</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>4.021256766278285</v>
+        <v>4.041115180134383</v>
       </c>
       <c r="H55">
-        <v>4.017354607582092</v>
+        <v>4.046332001686096</v>
       </c>
       <c r="I55">
-        <v>4.000119686126709</v>
+        <v>4.028487682342529</v>
       </c>
       <c r="L55">
-        <v>72.05427811581015</v>
+        <v>42.92928839481094</v>
       </c>
       <c r="M55">
-        <v>67.74344717504934</v>
-      </c>
-      <c r="O55" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15">
+        <v>46.81355078253134</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B56">
-        <v>4.059096813201904</v>
+        <v>4.027869701385498</v>
       </c>
       <c r="C56">
-        <v>4.076005935668945</v>
+        <v>4.053854942321777</v>
       </c>
       <c r="D56">
-        <v>4.051697254180908</v>
+        <v>4.017354011535645</v>
       </c>
       <c r="E56">
-        <v>4.053935050964356</v>
+        <v>4.049589157104492</v>
       </c>
       <c r="F56">
-        <v>16712</v>
+        <v>15686</v>
       </c>
       <c r="G56">
-        <v>4.024227519431564</v>
+        <v>4.04188554167712</v>
       </c>
       <c r="H56">
-        <v>4.021736001968383</v>
+        <v>4.046920132637024</v>
       </c>
       <c r="I56">
-        <v>4.002919658025106</v>
+        <v>4.030539433161418</v>
       </c>
       <c r="L56">
-        <v>61.66041902582221</v>
+        <v>52.49670949738239</v>
       </c>
       <c r="M56">
-        <v>61.46303738690581</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15">
+        <v>52.55135110418159</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B57">
-        <v>4.058369636535645</v>
+        <v>4.058428764343262</v>
       </c>
       <c r="C57">
-        <v>4.075696468353272</v>
+        <v>4.059934139251709</v>
       </c>
       <c r="D57">
-        <v>4.053369998931885</v>
+        <v>4.027045249938965</v>
       </c>
       <c r="E57">
-        <v>4.06092357635498</v>
+        <v>4.044986248016357</v>
       </c>
       <c r="F57">
-        <v>18528</v>
+        <v>106563</v>
       </c>
       <c r="G57">
-        <v>4.02756352460642</v>
+        <v>4.042167424071596</v>
       </c>
       <c r="H57">
-        <v>4.026255178451538</v>
+        <v>4.046598243713379</v>
       </c>
       <c r="I57">
-        <v>4.005877272288004</v>
+        <v>4.032172203063965</v>
       </c>
       <c r="L57">
-        <v>64.15299451245021</v>
+        <v>50.61828385382599</v>
       </c>
       <c r="M57">
-        <v>63.04398112489256</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
+        <v>51.37686155962331</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B58">
-        <v>4.078051090240479</v>
+        <v>4.043624877929688</v>
       </c>
       <c r="C58">
-        <v>4.078051090240479</v>
+        <v>4.05042028427124</v>
       </c>
       <c r="D58">
-        <v>4.045464515686035</v>
+        <v>4.036074638366699</v>
       </c>
       <c r="E58">
-        <v>4.050934791564941</v>
+        <v>4.05042028427124</v>
       </c>
       <c r="F58">
-        <v>70366</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>4.029688185239013</v>
+        <v>4.042917684089745</v>
       </c>
       <c r="H58">
-        <v>4.030061709880829</v>
+        <v>4.046357488632202</v>
       </c>
       <c r="I58">
-        <v>4.008342321713766</v>
+        <v>4.037004534403483</v>
       </c>
       <c r="L58">
-        <v>58.08121133804769</v>
+        <v>52.8585889187663</v>
       </c>
       <c r="M58">
-        <v>59.29941799947383</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15">
+        <v>52.72029106003877</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B59">
-        <v>4.049937725067139</v>
+        <v>4.05021858215332</v>
       </c>
       <c r="C59">
-        <v>4.071482658386231</v>
+        <v>4.056179046630859</v>
       </c>
       <c r="D59">
-        <v>4.042916297912598</v>
+        <v>4.035332679748535</v>
       </c>
       <c r="E59">
-        <v>4.054049491882324</v>
+        <v>4.054157733917236</v>
       </c>
       <c r="F59">
-        <v>6002</v>
+        <v>2584</v>
       </c>
       <c r="G59">
-        <v>4.031902849479314</v>
+        <v>4.043939506801335</v>
       </c>
       <c r="H59">
-        <v>4.033566415309906</v>
+        <v>4.047226095199585</v>
       </c>
       <c r="I59">
-        <v>4.012755012512207</v>
+        <v>4.040144252777099</v>
       </c>
       <c r="L59">
-        <v>59.42824740190667</v>
+        <v>54.45728261675298</v>
       </c>
       <c r="M59">
-        <v>60.09533806935662</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
+        <v>53.66846086949378</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B60">
-        <v>4.053813934326172</v>
+        <v>4.053653717041016</v>
       </c>
       <c r="C60">
-        <v>4.064188957214356</v>
+        <v>4.054451465606689</v>
       </c>
       <c r="D60">
-        <v>4.041526794433594</v>
+        <v>4.036948204040527</v>
       </c>
       <c r="E60">
-        <v>4.051355361938477</v>
+        <v>4.052229404449463</v>
       </c>
       <c r="F60">
-        <v>9299</v>
+        <v>4527</v>
       </c>
       <c r="G60">
-        <v>4.033671259702874</v>
+        <v>4.044693133860256</v>
       </c>
       <c r="H60">
-        <v>4.037690448760986</v>
+        <v>4.046870517730713</v>
       </c>
       <c r="I60">
-        <v>4.015808844566346</v>
+        <v>4.042478164037068</v>
       </c>
       <c r="L60">
-        <v>57.62628423263494</v>
+        <v>53.40601979076423</v>
       </c>
       <c r="M60">
-        <v>59.02021889476323</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
+        <v>53.07702390639753</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B61">
-        <v>4.033242225646973</v>
+        <v>4.049919605255127</v>
       </c>
       <c r="C61">
-        <v>4.035077095031738</v>
+        <v>4.054989814758301</v>
       </c>
       <c r="D61">
-        <v>3.987824678421021</v>
+        <v>4.038718223571777</v>
       </c>
       <c r="E61">
-        <v>4.006327629089356</v>
+        <v>4.038968563079834</v>
       </c>
       <c r="F61">
-        <v>445782</v>
+        <v>2605</v>
       </c>
       <c r="G61">
-        <v>4.031185475101646</v>
+        <v>4.044172718334763</v>
       </c>
       <c r="H61">
-        <v>4.039420652389526</v>
+        <v>4.045945620536804</v>
       </c>
       <c r="I61">
-        <v>4.017457779248556</v>
+        <v>4.043970012664795</v>
       </c>
       <c r="L61">
-        <v>36.70181061317935</v>
+        <v>46.46638533109753</v>
       </c>
       <c r="M61">
-        <v>44.64448894354035</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15">
+        <v>49.07206399771066</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B62">
-        <v>4.004206657409668</v>
+        <v>4.040878295898438</v>
       </c>
       <c r="C62">
-        <v>4.022145748138428</v>
+        <v>4.055177688598633</v>
       </c>
       <c r="D62">
-        <v>4.00203800201416</v>
+        <v>4.037009716033936</v>
       </c>
       <c r="E62">
-        <v>4.020078182220459</v>
+        <v>4.037922859191895</v>
       </c>
       <c r="F62">
-        <v>2147</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>4.030175721203356</v>
+        <v>4.043604549321775</v>
       </c>
       <c r="H62">
-        <v>4.040702033042908</v>
+        <v>4.045447635650635</v>
       </c>
       <c r="I62">
-        <v>4.019008827209473</v>
+        <v>4.044622802734375</v>
       </c>
       <c r="L62">
-        <v>43.7222351479491</v>
+        <v>45.93684660421527</v>
       </c>
       <c r="M62">
-        <v>48.74982937826513</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15">
+        <v>48.75961852590056</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B63">
-        <v>4.017149925231934</v>
+        <v>4.052824974060059</v>
       </c>
       <c r="C63">
-        <v>4.023760318756104</v>
+        <v>4.054403305053711</v>
       </c>
       <c r="D63">
-        <v>4.005350112915039</v>
+        <v>4.034501075744629</v>
       </c>
       <c r="E63">
-        <v>4.015066623687744</v>
+        <v>4.051859855651856</v>
       </c>
       <c r="F63">
-        <v>47346</v>
+        <v>30675</v>
       </c>
       <c r="G63">
-        <v>4.028802166883755</v>
+        <v>4.044355031715419</v>
       </c>
       <c r="H63">
-        <v>4.041019678115845</v>
+        <v>4.046113801002503</v>
       </c>
       <c r="I63">
-        <v>4.020266763369242</v>
+        <v>4.045920928319295</v>
       </c>
       <c r="L63">
-        <v>41.82043115506517</v>
+        <v>53.82660392622674</v>
       </c>
       <c r="M63">
-        <v>47.37091466847958</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15">
+        <v>53.05022402104743</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B64">
-        <v>4.013563632965088</v>
+        <v>4.051720142364502</v>
       </c>
       <c r="C64">
-        <v>4.020240306854248</v>
+        <v>4.052882194519043</v>
       </c>
       <c r="D64">
-        <v>4.010095119476318</v>
+        <v>4.032924175262451</v>
       </c>
       <c r="E64">
-        <v>4.020240306854248</v>
+        <v>4.051868915557861</v>
       </c>
       <c r="F64">
-        <v>49289</v>
+        <v>5650</v>
       </c>
       <c r="G64">
-        <v>4.028023815971981</v>
+        <v>4.045038112064732</v>
       </c>
       <c r="H64">
-        <v>4.040951299667358</v>
+        <v>4.046773290634155</v>
       </c>
       <c r="I64">
-        <v>4.021698188781738</v>
+        <v>4.046748256683349</v>
       </c>
       <c r="L64">
-        <v>44.6181888457101</v>
+        <v>53.83153129159206</v>
       </c>
       <c r="M64">
-        <v>48.97547116458377</v>
+        <v>53.05297605306809</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -2967,34 +2955,34 @@
         <v>77</v>
       </c>
       <c r="B65">
-        <v>4.022744655609131</v>
+        <v>4.051098823547363</v>
       </c>
       <c r="C65">
-        <v>4.023547172546387</v>
+        <v>4.055080890655518</v>
       </c>
       <c r="D65">
-        <v>4.00028133392334</v>
+        <v>4.034472942352295</v>
       </c>
       <c r="E65">
-        <v>4.008755207061768</v>
+        <v>4.051366806030273</v>
       </c>
       <c r="F65">
-        <v>9416</v>
+        <v>119</v>
       </c>
       <c r="G65">
-        <v>4.02627212425287</v>
+        <v>4.045613447879781</v>
       </c>
       <c r="H65">
-        <v>4.039443993568421</v>
+        <v>4.045453286170959</v>
       </c>
       <c r="I65">
-        <v>4.022958612442016</v>
+        <v>4.047000328699748</v>
       </c>
       <c r="L65">
-        <v>39.83426876989372</v>
+        <v>53.47573045369104</v>
       </c>
       <c r="M65">
-        <v>45.64831225990535</v>
+        <v>52.86801834122913</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3002,34 +2990,34 @@
         <v>78</v>
       </c>
       <c r="B66">
-        <v>4.009475231170654</v>
+        <v>4.054627418518066</v>
       </c>
       <c r="C66">
-        <v>4.019331932067871</v>
+        <v>4.058446884155273</v>
       </c>
       <c r="D66">
-        <v>4.003896236419678</v>
+        <v>4.034145832061768</v>
       </c>
       <c r="E66">
-        <v>4.005487442016602</v>
+        <v>4.057713031768799</v>
       </c>
       <c r="F66">
-        <v>9900</v>
+        <v>156055</v>
       </c>
       <c r="G66">
-        <v>4.024382607685936</v>
+        <v>4.04671341005151</v>
       </c>
       <c r="H66">
-        <v>4.03813407421112</v>
+        <v>4.047467136383057</v>
       </c>
       <c r="I66">
-        <v>4.024264621734619</v>
+        <v>4.04766321182251</v>
       </c>
       <c r="L66">
-        <v>38.51253891318224</v>
+        <v>57.47250466526622</v>
       </c>
       <c r="M66">
-        <v>44.71747674814958</v>
+        <v>55.00325270871323</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3037,34 +3025,34 @@
         <v>79</v>
       </c>
       <c r="B67">
-        <v>4.005152225494385</v>
+        <v>4.058359146118164</v>
       </c>
       <c r="C67">
-        <v>4.010035037994385</v>
+        <v>4.058689117431641</v>
       </c>
       <c r="D67">
-        <v>3.979846477508545</v>
+        <v>4.041961669921875</v>
       </c>
       <c r="E67">
-        <v>3.988036632537842</v>
+        <v>4.057291030883789</v>
       </c>
       <c r="F67">
-        <v>51746</v>
+        <v>2411</v>
       </c>
       <c r="G67">
-        <v>4.021078428127018</v>
+        <v>4.047675011945353</v>
       </c>
       <c r="H67">
-        <v>4.034764337539673</v>
+        <v>4.049296951293945</v>
       </c>
       <c r="I67">
-        <v>4.024847841262817</v>
+        <v>4.047858778635661</v>
       </c>
       <c r="L67">
-        <v>32.11133712523075</v>
+        <v>57.10551110615116</v>
       </c>
       <c r="M67">
-        <v>40.02377292467695</v>
+        <v>54.82538624119767</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3072,34 +3060,34 @@
         <v>80</v>
       </c>
       <c r="B68">
-        <v>3.988721609115601</v>
+        <v>4.05213451385498</v>
       </c>
       <c r="C68">
-        <v>3.999701738357544</v>
+        <v>4.067340850830078</v>
       </c>
       <c r="D68">
-        <v>3.974085330963135</v>
+        <v>4.05213451385498</v>
       </c>
       <c r="E68">
-        <v>3.996003150939941</v>
+        <v>4.058960437774658</v>
       </c>
       <c r="F68">
-        <v>4856</v>
+        <v>11969</v>
       </c>
       <c r="G68">
-        <v>4.018798857473648</v>
+        <v>4.048700959748017</v>
       </c>
       <c r="H68">
-        <v>4.03227596282959</v>
+        <v>4.050184082984924</v>
       </c>
       <c r="I68">
-        <v>4.025554474194845</v>
+        <v>4.047982947031657</v>
       </c>
       <c r="L68">
-        <v>37.45067613425876</v>
+        <v>58.2908194406078</v>
       </c>
       <c r="M68">
-        <v>42.96686150177219</v>
+        <v>55.43927750652298</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3107,37 +3095,34 @@
         <v>81</v>
       </c>
       <c r="B69">
-        <v>3.995230674743652</v>
+        <v>4.057479858398438</v>
       </c>
       <c r="C69">
-        <v>4.006964206695557</v>
+        <v>4.061830043792725</v>
       </c>
       <c r="D69">
-        <v>3.814192771911621</v>
+        <v>4.033535480499268</v>
       </c>
       <c r="E69">
-        <v>3.905450344085693</v>
+        <v>4.057992935180664</v>
       </c>
       <c r="F69">
-        <v>947633</v>
+        <v>4100</v>
       </c>
       <c r="G69">
-        <v>4.008494447165652</v>
+        <v>4.049545684787349</v>
       </c>
       <c r="H69">
-        <v>4.025368118286133</v>
+        <v>4.050558066368103</v>
       </c>
       <c r="I69">
-        <v>4.022937639554342</v>
+        <v>4.048689858118693</v>
       </c>
       <c r="L69">
-        <v>18.67195724036718</v>
+        <v>57.25920453203162</v>
       </c>
       <c r="M69">
-        <v>26.84290212793142</v>
-      </c>
-      <c r="N69" t="s">
-        <v>195</v>
+        <v>54.9730249130159</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3145,34 +3130,37 @@
         <v>82</v>
       </c>
       <c r="B70">
-        <v>3.906953096389771</v>
+        <v>4.053007125854492</v>
       </c>
       <c r="C70">
-        <v>3.965299606323242</v>
+        <v>4.067033290863037</v>
       </c>
       <c r="D70">
-        <v>3.898057222366333</v>
+        <v>4.005656242370605</v>
       </c>
       <c r="E70">
-        <v>3.95996618270874</v>
+        <v>4.005656242370605</v>
       </c>
       <c r="F70">
-        <v>146782</v>
+        <v>99434</v>
       </c>
       <c r="G70">
-        <v>4.004082786760478</v>
+        <v>4.045555735476736</v>
       </c>
       <c r="H70">
-        <v>4.020768404006958</v>
+        <v>4.048843836784362</v>
       </c>
       <c r="I70">
-        <v>4.022640689214071</v>
+        <v>4.046900367736816</v>
       </c>
       <c r="L70">
-        <v>39.28973059289142</v>
+        <v>27.567948888513</v>
       </c>
       <c r="M70">
-        <v>41.15897119125648</v>
+        <v>36.8961439039775</v>
+      </c>
+      <c r="N70" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3180,34 +3168,34 @@
         <v>83</v>
       </c>
       <c r="B71">
-        <v>3.962329626083374</v>
+        <v>4.006100654602051</v>
       </c>
       <c r="C71">
-        <v>3.987205982208252</v>
+        <v>4.018533229827881</v>
       </c>
       <c r="D71">
-        <v>3.957917451858521</v>
+        <v>4.005216598510742</v>
       </c>
       <c r="E71">
-        <v>3.982212066650391</v>
+        <v>4.016349792480469</v>
       </c>
       <c r="F71">
-        <v>50115</v>
+        <v>11693</v>
       </c>
       <c r="G71">
-        <v>4.002094539477743</v>
+        <v>4.042900649749802</v>
       </c>
       <c r="H71">
-        <v>4.017927885055542</v>
+        <v>4.046616053581237</v>
       </c>
       <c r="I71">
-        <v>4.022990306218465</v>
+        <v>4.045529810587565</v>
       </c>
       <c r="L71">
-        <v>45.61866764931093</v>
+        <v>35.28190454026125</v>
       </c>
       <c r="M71">
-        <v>45.818381372967</v>
+        <v>41.15400136153958</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -3215,34 +3203,37 @@
         <v>84</v>
       </c>
       <c r="B72">
-        <v>3.987086534500122</v>
+        <v>4.018056869506836</v>
       </c>
       <c r="C72">
-        <v>4.008759498596191</v>
+        <v>4.018276214599609</v>
       </c>
       <c r="D72">
-        <v>3.987086534500122</v>
+        <v>3.984477996826172</v>
       </c>
       <c r="E72">
-        <v>3.994213104248047</v>
+        <v>3.990098476409912</v>
       </c>
       <c r="F72">
-        <v>21611</v>
+        <v>912550</v>
       </c>
       <c r="G72">
-        <v>4.001378045365953</v>
+        <v>4.038100452173448</v>
       </c>
       <c r="H72">
-        <v>4.015835499763488</v>
+        <v>4.043126440048217</v>
       </c>
       <c r="I72">
-        <v>4.022982390721639</v>
+        <v>4.043603674570719</v>
       </c>
       <c r="L72">
-        <v>48.85458187621041</v>
+        <v>27.26319048943129</v>
       </c>
       <c r="M72">
-        <v>48.20137421300587</v>
+        <v>34.92418365741339</v>
+      </c>
+      <c r="N72" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -3250,34 +3241,37 @@
         <v>85</v>
       </c>
       <c r="B73">
-        <v>4.000418186187744</v>
+        <v>3.98819375038147</v>
       </c>
       <c r="C73">
-        <v>4.018339157104492</v>
+        <v>3.99813175201416</v>
       </c>
       <c r="D73">
-        <v>3.947625637054443</v>
+        <v>3.987224817276001</v>
       </c>
       <c r="E73">
-        <v>4.018339157104492</v>
+        <v>3.990947961807251</v>
       </c>
       <c r="F73">
-        <v>1008745</v>
+        <v>10268</v>
       </c>
       <c r="G73">
-        <v>4.002919964614911</v>
+        <v>4.033813862140157</v>
       </c>
       <c r="H73">
-        <v>4.014820957183838</v>
+        <v>4.039750492572784</v>
       </c>
       <c r="I73">
-        <v>4.023303238550822</v>
+        <v>4.042017388343811</v>
       </c>
       <c r="L73">
-        <v>54.92111193546884</v>
+        <v>27.86006878824393</v>
       </c>
       <c r="M73">
-        <v>52.70477141100346</v>
+        <v>35.26568103615293</v>
+      </c>
+      <c r="N73" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -3285,34 +3279,34 @@
         <v>86</v>
       </c>
       <c r="B74">
-        <v>4.015218257904053</v>
+        <v>4.001732349395752</v>
       </c>
       <c r="C74">
-        <v>4.021584510803223</v>
+        <v>4.008344650268555</v>
       </c>
       <c r="D74">
-        <v>4.008022785186768</v>
+        <v>3.988427639007568</v>
       </c>
       <c r="E74">
-        <v>4.012916088104248</v>
+        <v>4.005769729614258</v>
       </c>
       <c r="F74">
-        <v>1228</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>4.003828703113942</v>
+        <v>4.031264395546893</v>
       </c>
       <c r="H74">
-        <v>4.013726782798767</v>
+        <v>4.037517297267914</v>
       </c>
       <c r="I74">
-        <v>4.023013512293498</v>
+        <v>4.040920408566793</v>
       </c>
       <c r="L74">
-        <v>53.32174057223834</v>
+        <v>37.86798360285869</v>
       </c>
       <c r="M74">
-        <v>51.61842017640831</v>
+        <v>41.07586321269836</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -3320,34 +3314,34 @@
         <v>87</v>
       </c>
       <c r="B75">
-        <v>4.01294994354248</v>
+        <v>4.003885746002197</v>
       </c>
       <c r="C75">
-        <v>4.03280782699585</v>
+        <v>4.00683069229126</v>
       </c>
       <c r="D75">
-        <v>4.0106201171875</v>
+        <v>3.98577094078064</v>
       </c>
       <c r="E75">
-        <v>4.027049064636231</v>
+        <v>4.001499652862549</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>4620</v>
       </c>
       <c r="G75">
-        <v>4.005939645070513</v>
+        <v>4.028558509848316</v>
       </c>
       <c r="H75">
-        <v>4.011566972732544</v>
+        <v>4.036282455921173</v>
       </c>
       <c r="I75">
-        <v>4.022618436813355</v>
+        <v>4.038378167152405</v>
       </c>
       <c r="L75">
-        <v>56.99358494907965</v>
+        <v>36.23858512071707</v>
       </c>
       <c r="M75">
-        <v>54.26417753416467</v>
+        <v>39.96302038750339</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -3355,34 +3349,34 @@
         <v>88</v>
       </c>
       <c r="B76">
-        <v>4.029244899749756</v>
+        <v>3.99702000617981</v>
       </c>
       <c r="C76">
-        <v>4.04380464553833</v>
+        <v>4.00495719909668</v>
       </c>
       <c r="D76">
-        <v>4.01364278793335</v>
+        <v>3.985864400863648</v>
       </c>
       <c r="E76">
-        <v>4.04380464553833</v>
+        <v>4.000858783721924</v>
       </c>
       <c r="F76">
-        <v>2809</v>
+        <v>693</v>
       </c>
       <c r="G76">
-        <v>4.009381917840315</v>
+        <v>4.026040352927735</v>
       </c>
       <c r="H76">
-        <v>4.011060452461242</v>
+        <v>4.033845937252044</v>
       </c>
       <c r="I76">
-        <v>4.023022397359212</v>
+        <v>4.037825592358907</v>
       </c>
       <c r="L76">
-        <v>61.07726182974042</v>
+        <v>35.97720727374548</v>
       </c>
       <c r="M76">
-        <v>57.24905315980012</v>
+        <v>39.78878907221251</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -3390,34 +3384,34 @@
         <v>89</v>
       </c>
       <c r="B77">
-        <v>4.046148300170898</v>
+        <v>3.998625040054321</v>
       </c>
       <c r="C77">
-        <v>4.052895069122314</v>
+        <v>4.002943992614746</v>
       </c>
       <c r="D77">
-        <v>4.000088214874268</v>
+        <v>3.986667394638062</v>
       </c>
       <c r="E77">
-        <v>4.037826538085938</v>
+        <v>3.999109506607056</v>
       </c>
       <c r="F77">
-        <v>485988</v>
+        <v>2355</v>
       </c>
       <c r="G77">
-        <v>4.011967792408099</v>
+        <v>4.02359209417131</v>
       </c>
       <c r="H77">
-        <v>4.009905600547791</v>
+        <v>4.03155210018158</v>
       </c>
       <c r="I77">
-        <v>4.022435569763184</v>
+        <v>4.037106084823608</v>
       </c>
       <c r="L77">
-        <v>58.83487907424855</v>
+        <v>35.19764128844173</v>
       </c>
       <c r="M77">
-        <v>55.84859257463729</v>
+        <v>39.28532074807329</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -3425,34 +3419,34 @@
         <v>90</v>
       </c>
       <c r="B78">
-        <v>4.03319787979126</v>
+        <v>3.98990273475647</v>
       </c>
       <c r="C78">
-        <v>4.053991794586182</v>
+        <v>4.002000331878662</v>
       </c>
       <c r="D78">
-        <v>4.027108192443848</v>
+        <v>3.984869956970215</v>
       </c>
       <c r="E78">
-        <v>4.051424026489258</v>
+        <v>4.001098155975342</v>
       </c>
       <c r="F78">
-        <v>9222</v>
+        <v>0</v>
       </c>
       <c r="G78">
-        <v>4.015554722779113</v>
+        <v>4.021547190698949</v>
       </c>
       <c r="H78">
-        <v>4.009930062294006</v>
+        <v>4.029085993766785</v>
       </c>
       <c r="I78">
-        <v>4.022624015808105</v>
+        <v>4.035768763224284</v>
       </c>
       <c r="L78">
-        <v>62.37005679474471</v>
+        <v>36.94505879630591</v>
       </c>
       <c r="M78">
-        <v>58.34464165440439</v>
+        <v>40.21153848547436</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -3460,34 +3454,34 @@
         <v>91</v>
       </c>
       <c r="B79">
-        <v>4.051102638244629</v>
+        <v>3.995540857315064</v>
       </c>
       <c r="C79">
-        <v>4.060157299041748</v>
+        <v>4.003167629241943</v>
       </c>
       <c r="D79">
-        <v>4.038615226745605</v>
+        <v>3.984841585159302</v>
       </c>
       <c r="E79">
-        <v>4.055235385894775</v>
+        <v>4.00300931930542</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>13418</v>
       </c>
       <c r="G79">
-        <v>4.019162055789628</v>
+        <v>4.019861929663174</v>
       </c>
       <c r="H79">
-        <v>4.009989356994629</v>
+        <v>4.026528573036193</v>
       </c>
       <c r="I79">
-        <v>4.023011620839437</v>
+        <v>4.034185298283895</v>
       </c>
       <c r="L79">
-        <v>63.36222360087108</v>
+        <v>38.73128617661779</v>
       </c>
       <c r="M79">
-        <v>59.04357616905084</v>
+        <v>41.14084226282984</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -3495,3508 +3489,3508 @@
         <v>92</v>
       </c>
       <c r="B80">
-        <v>4.052771091461182</v>
+        <v>4.003072738647461</v>
       </c>
       <c r="C80">
-        <v>4.071582794189453</v>
+        <v>4.007250785827637</v>
       </c>
       <c r="D80">
-        <v>4.02372407913208</v>
+        <v>3.981145858764648</v>
       </c>
       <c r="E80">
-        <v>4.03678560256958</v>
+        <v>4.003195285797119</v>
       </c>
       <c r="F80">
-        <v>271312</v>
+        <v>4023</v>
       </c>
       <c r="G80">
-        <v>4.020764196405986</v>
+        <v>4.018346780220805</v>
       </c>
       <c r="H80">
-        <v>4.009260869026184</v>
+        <v>4.024076867103576</v>
       </c>
       <c r="I80">
-        <v>4.022505791982015</v>
+        <v>4.032960446675618</v>
       </c>
       <c r="L80">
-        <v>55.40656328241516</v>
+        <v>38.9206953974994</v>
       </c>
       <c r="M80">
-        <v>54.29441588681317</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13">
+        <v>41.2365548710218</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B81">
-        <v>4.036081314086914</v>
+        <v>4.003635406494141</v>
       </c>
       <c r="C81">
-        <v>4.060256004333496</v>
+        <v>4.006579399108887</v>
       </c>
       <c r="D81">
-        <v>4.034209251403809</v>
+        <v>3.984433650970459</v>
       </c>
       <c r="E81">
-        <v>4.059340953826904</v>
+        <v>3.998671293258667</v>
       </c>
       <c r="F81">
-        <v>1094204</v>
+        <v>3212</v>
       </c>
       <c r="G81">
-        <v>4.024271174353343</v>
+        <v>4.016558099587883</v>
       </c>
       <c r="H81">
-        <v>4.011911535263062</v>
+        <v>4.022062003612518</v>
       </c>
       <c r="I81">
-        <v>4.023183075586955</v>
+        <v>4.030885974566142</v>
       </c>
       <c r="L81">
-        <v>61.97324459982906</v>
+        <v>35.88463380952137</v>
       </c>
       <c r="M81">
-        <v>58.67106195301228</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
+        <v>39.55158974203432</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B82">
-        <v>4.059684276580811</v>
+        <v>3.987697839736938</v>
       </c>
       <c r="C82">
-        <v>4.063249588012695</v>
+        <v>4.004825115203857</v>
       </c>
       <c r="D82">
-        <v>4.05565881729126</v>
+        <v>3.979443311691284</v>
       </c>
       <c r="E82">
-        <v>4.057466506958008</v>
+        <v>3.979443311691284</v>
       </c>
       <c r="F82">
-        <v>451317</v>
+        <v>9272</v>
       </c>
       <c r="G82">
-        <v>4.027288931862858</v>
+        <v>4.01318402796092</v>
       </c>
       <c r="H82">
-        <v>4.013780951499939</v>
+        <v>4.019138026237488</v>
       </c>
       <c r="I82">
-        <v>4.023896598815918</v>
+        <v>4.028204393386841</v>
       </c>
       <c r="L82">
-        <v>61.13162278519388</v>
+        <v>26.13616855899984</v>
       </c>
       <c r="M82">
-        <v>58.17252392217657</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
+        <v>33.31986482844381</v>
+      </c>
+      <c r="N82" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B83">
-        <v>4.05778169631958</v>
+        <v>3.996787786483765</v>
       </c>
       <c r="C83">
-        <v>4.064543724060059</v>
+        <v>4.0030198097229</v>
       </c>
       <c r="D83">
-        <v>4.033920288085938</v>
+        <v>3.978085279464722</v>
       </c>
       <c r="E83">
-        <v>4.047882556915283</v>
+        <v>3.996256113052368</v>
       </c>
       <c r="F83">
-        <v>709651</v>
+        <v>9989</v>
       </c>
       <c r="G83">
-        <v>4.029161079594896</v>
+        <v>4.011645126605597</v>
       </c>
       <c r="H83">
-        <v>4.015421748161316</v>
+        <v>4.016357839107513</v>
       </c>
       <c r="I83">
-        <v>4.024205017089844</v>
+        <v>4.02613070011139</v>
       </c>
       <c r="L83">
-        <v>56.70229977906197</v>
+        <v>41.71241184182763</v>
       </c>
       <c r="M83">
-        <v>55.57242550464549</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
+        <v>41.93478809063528</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B84">
-        <v>4.050301551818848</v>
+        <v>3.995734214782715</v>
       </c>
       <c r="C84">
-        <v>4.052661418914795</v>
+        <v>4.004832267761231</v>
       </c>
       <c r="D84">
-        <v>4.03585147857666</v>
+        <v>3.985998868942261</v>
       </c>
       <c r="E84">
-        <v>4.038536548614502</v>
+        <v>3.995821952819824</v>
       </c>
       <c r="F84">
-        <v>12933</v>
+        <v>11369</v>
       </c>
       <c r="G84">
-        <v>4.030013394960315</v>
+        <v>4.010206656261436</v>
       </c>
       <c r="H84">
-        <v>4.016336560249329</v>
+        <v>4.013555490970612</v>
       </c>
       <c r="I84">
-        <v>4.024329582850139</v>
+        <v>4.024310310681661</v>
       </c>
       <c r="L84">
-        <v>52.5269954929044</v>
+        <v>41.45842793344032</v>
       </c>
       <c r="M84">
-        <v>53.08083903585591</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
+        <v>41.78465845140128</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B85">
-        <v>4.040127754211426</v>
+        <v>3.995349407196045</v>
       </c>
       <c r="C85">
-        <v>4.049064159393311</v>
+        <v>4.002390861511231</v>
       </c>
       <c r="D85">
-        <v>4.018638134002686</v>
+        <v>3.97878360748291</v>
       </c>
       <c r="E85">
-        <v>4.038679122924805</v>
+        <v>3.997730493545532</v>
       </c>
       <c r="F85">
-        <v>417650</v>
+        <v>3621</v>
       </c>
       <c r="G85">
-        <v>4.030801188411631</v>
+        <v>4.009072459650898</v>
       </c>
       <c r="H85">
-        <v>4.01783275604248</v>
+        <v>4.010873675346375</v>
       </c>
       <c r="I85">
-        <v>4.023277378082275</v>
+        <v>4.023361444473267</v>
       </c>
       <c r="L85">
-        <v>52.58691294399735</v>
+        <v>43.16972180509268</v>
       </c>
       <c r="M85">
-        <v>53.11537303521177</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
+        <v>42.75487036956545</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B86">
-        <v>4.023390769958496</v>
+        <v>3.996854543685913</v>
       </c>
       <c r="C86">
-        <v>4.082073211669922</v>
+        <v>4.00042200088501</v>
       </c>
       <c r="D86">
-        <v>4.023390769958496</v>
+        <v>3.978764057159424</v>
       </c>
       <c r="E86">
-        <v>4.077766895294189</v>
+        <v>3.993414402008057</v>
       </c>
       <c r="F86">
-        <v>8401</v>
+        <v>35819</v>
       </c>
       <c r="G86">
-        <v>4.035070798128228</v>
+        <v>4.007648999865186</v>
       </c>
       <c r="H86">
-        <v>4.02144672870636</v>
+        <v>4.007658743858338</v>
       </c>
       <c r="I86">
-        <v>4.02407177289327</v>
+        <v>4.021488952636719</v>
       </c>
       <c r="L86">
-        <v>65.87211468566451</v>
+        <v>40.18140222525449</v>
       </c>
       <c r="M86">
-        <v>61.48507542412331</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
+        <v>41.08720225997631</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B87">
-        <v>4.077842235565186</v>
+        <v>3.993201017379761</v>
       </c>
       <c r="C87">
-        <v>4.081790447235107</v>
+        <v>4.002143383026123</v>
       </c>
       <c r="D87">
-        <v>3.936596632003784</v>
+        <v>3.980553150177002</v>
       </c>
       <c r="E87">
-        <v>4.017436027526856</v>
+        <v>3.996706962585449</v>
       </c>
       <c r="F87">
-        <v>501151</v>
+        <v>21646</v>
       </c>
       <c r="G87">
-        <v>4.033467637164467</v>
+        <v>4.006654269203391</v>
       </c>
       <c r="H87">
-        <v>4.022916698455811</v>
+        <v>4.00462954044342</v>
       </c>
       <c r="I87">
-        <v>4.022622187932332</v>
+        <v>4.019879643122355</v>
       </c>
       <c r="L87">
-        <v>44.3122878630256</v>
+        <v>43.53581500449793</v>
       </c>
       <c r="M87">
-        <v>47.4154443334842</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
+        <v>42.91641036021942</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B88">
-        <v>4.023036479949951</v>
+        <v>3.993052005767822</v>
       </c>
       <c r="C88">
-        <v>4.023036479949951</v>
+        <v>4.001917362213135</v>
       </c>
       <c r="D88">
-        <v>4.006032943725586</v>
+        <v>3.982352256774902</v>
       </c>
       <c r="E88">
-        <v>4.020694732666016</v>
+        <v>3.994936466217041</v>
       </c>
       <c r="F88">
-        <v>3578</v>
+        <v>2762</v>
       </c>
       <c r="G88">
-        <v>4.032306464028244</v>
+        <v>4.00558901438645</v>
       </c>
       <c r="H88">
-        <v>4.024151277542114</v>
+        <v>4.001428341865539</v>
       </c>
       <c r="I88">
-        <v>4.021614185969034</v>
+        <v>4.018030182520548</v>
       </c>
       <c r="L88">
-        <v>45.39823420339638</v>
+        <v>42.10740608641238</v>
       </c>
       <c r="M88">
-        <v>48.10619088749106</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
+        <v>42.15838560345499</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B89">
-        <v>4.026575565338135</v>
+        <v>3.994630575180054</v>
       </c>
       <c r="C89">
-        <v>4.048302173614502</v>
+        <v>4.007627010345459</v>
       </c>
       <c r="D89">
-        <v>4.016805171966553</v>
+        <v>3.992976427078247</v>
       </c>
       <c r="E89">
-        <v>4.041217803955078</v>
+        <v>4.003232955932617</v>
       </c>
       <c r="F89">
-        <v>9124</v>
+        <v>4006</v>
       </c>
       <c r="G89">
-        <v>4.033116585839775</v>
+        <v>4.005374827254284</v>
       </c>
       <c r="H89">
-        <v>4.030939650535584</v>
+        <v>3.998690342903137</v>
       </c>
       <c r="I89">
-        <v>4.021186463038126</v>
+        <v>4.016332689921061</v>
       </c>
       <c r="L89">
-        <v>52.0265038867211</v>
+        <v>50.64421899982392</v>
       </c>
       <c r="M89">
-        <v>52.3513420832084</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
+        <v>46.89211100672164</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B90">
-        <v>4.05397891998291</v>
+        <v>4.006031036376953</v>
       </c>
       <c r="C90">
-        <v>4.075954914093018</v>
+        <v>4.009318351745605</v>
       </c>
       <c r="D90">
-        <v>4.039493560791016</v>
+        <v>3.993959426879883</v>
       </c>
       <c r="E90">
-        <v>4.05051326751709</v>
+        <v>3.998855352401733</v>
       </c>
       <c r="F90">
-        <v>25176</v>
+        <v>8880</v>
       </c>
       <c r="G90">
-        <v>4.034698102355894</v>
+        <v>4.004782147722233</v>
       </c>
       <c r="H90">
-        <v>4.035467004776001</v>
+        <v>3.998350298404694</v>
       </c>
       <c r="I90">
-        <v>4.021158393224081</v>
+        <v>4.014553554852804</v>
       </c>
       <c r="L90">
-        <v>54.82104731425504</v>
+        <v>46.56802242518069</v>
       </c>
       <c r="M90">
-        <v>54.17965023326616</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
+        <v>44.80834802421413</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B91">
-        <v>4.039120197296143</v>
+        <v>3.997990846633911</v>
       </c>
       <c r="C91">
-        <v>4.06186580657959</v>
+        <v>4.010096549987793</v>
       </c>
       <c r="D91">
-        <v>4.031206130981445</v>
+        <v>3.978682994842529</v>
       </c>
       <c r="E91">
-        <v>4.03994083404541</v>
+        <v>4.004804611206055</v>
       </c>
       <c r="F91">
-        <v>92442</v>
+        <v>504</v>
       </c>
       <c r="G91">
-        <v>4.035174714327669</v>
+        <v>4.004784189857125</v>
       </c>
       <c r="H91">
-        <v>4.038353443145752</v>
+        <v>3.997773039340973</v>
       </c>
       <c r="I91">
-        <v>4.022278833389282</v>
+        <v>4.013414756457011</v>
       </c>
       <c r="L91">
-        <v>51.01834531225698</v>
+        <v>52.4227121169976</v>
       </c>
       <c r="M91">
-        <v>51.74757333358007</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
+        <v>48.17864680290577</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B92">
-        <v>4.047986030578613</v>
+        <v>4.008343696594238</v>
       </c>
       <c r="C92">
-        <v>4.063950061798096</v>
+        <v>4.010416984558105</v>
       </c>
       <c r="D92">
-        <v>4.041772365570068</v>
+        <v>3.986278533935547</v>
       </c>
       <c r="E92">
-        <v>4.060905456542969</v>
+        <v>4.004809856414795</v>
       </c>
       <c r="F92">
-        <v>3313</v>
+        <v>240842</v>
       </c>
       <c r="G92">
-        <v>4.037513872710877</v>
+        <v>4.00478652318055</v>
       </c>
       <c r="H92">
-        <v>4.041688060760498</v>
+        <v>3.998508608341217</v>
       </c>
       <c r="I92">
-        <v>4.023639742533366</v>
+        <v>4.012310989697775</v>
       </c>
       <c r="L92">
-        <v>57.582183710042</v>
+        <v>52.4278823195142</v>
       </c>
       <c r="M92">
-        <v>55.96844278265573</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
+        <v>48.18165124042558</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B93">
-        <v>4.060749053955078</v>
+        <v>4.008169174194336</v>
       </c>
       <c r="C93">
-        <v>4.065542221069336</v>
+        <v>4.008640766143799</v>
       </c>
       <c r="D93">
-        <v>4.044419765472412</v>
+        <v>3.97148871421814</v>
       </c>
       <c r="E93">
-        <v>4.059890747070312</v>
+        <v>4.005354404449463</v>
       </c>
       <c r="F93">
-        <v>21877</v>
+        <v>2938</v>
       </c>
       <c r="G93">
-        <v>4.039548134016281</v>
+        <v>4.004838148750451</v>
       </c>
       <c r="H93">
-        <v>4.043765640258789</v>
+        <v>3.999228930473328</v>
       </c>
       <c r="I93">
-        <v>4.025133879979451</v>
+        <v>4.010760807991028</v>
       </c>
       <c r="L93">
-        <v>57.16506247393375</v>
+        <v>53.02410552152035</v>
       </c>
       <c r="M93">
-        <v>55.71441006864755</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
+        <v>48.51537725676508</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B94">
-        <v>4.061551094055176</v>
+        <v>4.003530025482178</v>
       </c>
       <c r="C94">
-        <v>4.063464641571045</v>
+        <v>4.009269714355469</v>
       </c>
       <c r="D94">
-        <v>4.042523860931396</v>
+        <v>3.968780755996704</v>
       </c>
       <c r="E94">
-        <v>4.058466911315918</v>
+        <v>3.974111795425415</v>
       </c>
       <c r="F94">
-        <v>2526</v>
+        <v>1202</v>
       </c>
       <c r="G94">
-        <v>4.041268022861702</v>
+        <v>4.00204484390272</v>
       </c>
       <c r="H94">
-        <v>4.046043181419373</v>
+        <v>3.997646033763885</v>
       </c>
       <c r="I94">
-        <v>4.026408100128174</v>
+        <v>4.008168903986613</v>
       </c>
       <c r="L94">
-        <v>56.51875752965118</v>
+        <v>29.31214057405718</v>
       </c>
       <c r="M94">
-        <v>55.33487820242174</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
+        <v>34.70525514577962</v>
+      </c>
+      <c r="N94" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B95">
-        <v>4.058699131011963</v>
+        <v>3.97188925743103</v>
       </c>
       <c r="C95">
-        <v>4.066493511199951</v>
+        <v>3.981448411941528</v>
       </c>
       <c r="D95">
-        <v>4.042450904846191</v>
+        <v>3.9654541015625</v>
       </c>
       <c r="E95">
-        <v>4.05043363571167</v>
+        <v>3.973678350448608</v>
       </c>
       <c r="F95">
-        <v>1727</v>
+        <v>1679</v>
       </c>
       <c r="G95">
-        <v>4.042101260393517</v>
+        <v>3.999466071770528</v>
       </c>
       <c r="H95">
-        <v>4.047212409973144</v>
+        <v>3.996254968643188</v>
       </c>
       <c r="I95">
-        <v>4.027797381083171</v>
+        <v>4.005579288800558</v>
       </c>
       <c r="L95">
-        <v>52.7344492701438</v>
+        <v>29.10897026628699</v>
       </c>
       <c r="M95">
-        <v>53.13558256919359</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
+        <v>34.55828077879225</v>
+      </c>
+      <c r="N95" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B96">
-        <v>4.060650825500488</v>
+        <v>3.973466396331787</v>
       </c>
       <c r="C96">
-        <v>4.065515995025635</v>
+        <v>3.978044748306274</v>
       </c>
       <c r="D96">
-        <v>4.026196479797363</v>
+        <v>3.948304891586304</v>
       </c>
       <c r="E96">
-        <v>4.026196479797363</v>
+        <v>3.957789897918701</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>9135</v>
       </c>
       <c r="G96">
-        <v>4.040655371248413</v>
+        <v>3.995677328693088</v>
       </c>
       <c r="H96">
-        <v>4.046332001686096</v>
+        <v>3.994101524353027</v>
       </c>
       <c r="I96">
-        <v>4.028487682342529</v>
+        <v>4.00224851767222</v>
       </c>
       <c r="L96">
-        <v>42.96902876353627</v>
+        <v>22.6382143234679</v>
       </c>
       <c r="M96">
-        <v>47.05848426973861</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14">
+        <v>29.60841106215716</v>
+      </c>
+      <c r="N96" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B97">
-        <v>4.027869701385498</v>
+        <v>3.958366632461548</v>
       </c>
       <c r="C97">
-        <v>4.053854942321777</v>
+        <v>3.985286235809326</v>
       </c>
       <c r="D97">
-        <v>4.017354011535645</v>
+        <v>3.950961112976074</v>
       </c>
       <c r="E97">
-        <v>4.049589157104492</v>
+        <v>3.966834306716919</v>
       </c>
       <c r="F97">
-        <v>15686</v>
+        <v>7666</v>
       </c>
       <c r="G97">
-        <v>4.041467533598965</v>
+        <v>3.993055235786164</v>
       </c>
       <c r="H97">
-        <v>4.046920132637024</v>
+        <v>3.992487764358521</v>
       </c>
       <c r="I97">
-        <v>4.030539433161418</v>
+        <v>3.999233293533325</v>
       </c>
       <c r="L97">
-        <v>52.51653101717343</v>
+        <v>32.27880989760698</v>
       </c>
       <c r="M97">
-        <v>52.68329907551526</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14">
+        <v>35.29031866223516</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B98">
-        <v>4.058428764343262</v>
+        <v>3.968741893768311</v>
       </c>
       <c r="C98">
-        <v>4.059934139251709</v>
+        <v>4.012299537658691</v>
       </c>
       <c r="D98">
-        <v>4.027045249938965</v>
+        <v>3.961609601974487</v>
       </c>
       <c r="E98">
-        <v>4.044986248016357</v>
+        <v>3.980844259262085</v>
       </c>
       <c r="F98">
-        <v>106563</v>
+        <v>10331</v>
       </c>
       <c r="G98">
-        <v>4.041787416727819</v>
+        <v>3.991945147011247</v>
       </c>
       <c r="H98">
-        <v>4.046598243713379</v>
+        <v>3.991475069522858</v>
       </c>
       <c r="I98">
-        <v>4.032172203063965</v>
+        <v>3.99662942091624</v>
       </c>
       <c r="L98">
-        <v>50.63990857955163</v>
+        <v>44.3614578941543</v>
       </c>
       <c r="M98">
-        <v>51.52331296738781</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14">
+        <v>42.96960625088375</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B99">
-        <v>4.043624877929688</v>
+        <v>4.010465145111084</v>
       </c>
       <c r="C99">
-        <v>4.05042028427124</v>
+        <v>4.011868000030518</v>
       </c>
       <c r="D99">
-        <v>4.036074638366699</v>
+        <v>3.971190929412842</v>
       </c>
       <c r="E99">
-        <v>4.05042028427124</v>
+        <v>3.972577810287476</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>3144</v>
       </c>
       <c r="G99">
-        <v>4.04257222286813</v>
+        <v>3.990184480036359</v>
       </c>
       <c r="H99">
-        <v>4.046357488632202</v>
+        <v>3.989953494071961</v>
       </c>
       <c r="I99">
-        <v>4.037004534403483</v>
+        <v>3.993782250086467</v>
       </c>
       <c r="L99">
-        <v>52.87637421295013</v>
+        <v>39.66394194684376</v>
       </c>
       <c r="M99">
-        <v>52.84338392310289</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14">
+        <v>39.95655372585274</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B100">
-        <v>4.05021858215332</v>
+        <v>3.972319602966309</v>
       </c>
       <c r="C100">
-        <v>4.056179046630859</v>
+        <v>4.021392822265625</v>
       </c>
       <c r="D100">
-        <v>4.035332679748535</v>
+        <v>3.971091032028198</v>
       </c>
       <c r="E100">
-        <v>4.054157733917236</v>
+        <v>3.998994827270508</v>
       </c>
       <c r="F100">
-        <v>2584</v>
+        <v>463894</v>
       </c>
       <c r="G100">
-        <v>4.043625451145322</v>
+        <v>3.990985420694009</v>
       </c>
       <c r="H100">
-        <v>4.047226095199585</v>
+        <v>3.98974347114563</v>
       </c>
       <c r="I100">
-        <v>4.040144252777099</v>
+        <v>3.993560202916463</v>
       </c>
       <c r="L100">
-        <v>54.47249397631313</v>
+        <v>56.30029883364247</v>
       </c>
       <c r="M100">
-        <v>53.77571897192453</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14">
+        <v>51.62938931016624</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B101">
-        <v>4.053653717041016</v>
+        <v>3.999199628829956</v>
       </c>
       <c r="C101">
-        <v>4.054451465606689</v>
+        <v>4.02234411239624</v>
       </c>
       <c r="D101">
-        <v>4.036948204040527</v>
+        <v>3.997230291366577</v>
       </c>
       <c r="E101">
-        <v>4.052229404449463</v>
+        <v>4.019206523895264</v>
       </c>
       <c r="F101">
-        <v>4527</v>
+        <v>0</v>
       </c>
       <c r="G101">
-        <v>4.044407628718425</v>
+        <v>3.993550975530487</v>
       </c>
       <c r="H101">
-        <v>4.046870517730713</v>
+        <v>3.99077023267746</v>
       </c>
       <c r="I101">
-        <v>4.042478164037068</v>
+        <v>3.993655427296956</v>
       </c>
       <c r="L101">
-        <v>53.42220929495268</v>
+        <v>64.68226115529947</v>
       </c>
       <c r="M101">
-        <v>53.19138485140093</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14">
+        <v>58.30774865191916</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B102">
-        <v>4.049919605255127</v>
+        <v>3.998753309249878</v>
       </c>
       <c r="C102">
-        <v>4.054989814758301</v>
+        <v>4.019111633300781</v>
       </c>
       <c r="D102">
-        <v>4.038718223571777</v>
+        <v>3.98002028465271</v>
       </c>
       <c r="E102">
-        <v>4.038968563079834</v>
+        <v>3.98648738861084</v>
       </c>
       <c r="F102">
-        <v>2605</v>
+        <v>4004</v>
       </c>
       <c r="G102">
-        <v>4.043913168205826</v>
+        <v>3.992908831265064</v>
       </c>
       <c r="H102">
-        <v>4.045945620536804</v>
+        <v>3.991122436523438</v>
       </c>
       <c r="I102">
-        <v>4.043970012664795</v>
+        <v>3.993535057703654</v>
       </c>
       <c r="L102">
-        <v>46.48777695804471</v>
+        <v>47.93706479470261</v>
       </c>
       <c r="M102">
-        <v>49.2297269268217</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14">
+        <v>46.99593510082904</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B103">
-        <v>4.040878295898438</v>
+        <v>3.987236738204956</v>
       </c>
       <c r="C103">
-        <v>4.055177688598633</v>
+        <v>4.013584136962891</v>
       </c>
       <c r="D103">
-        <v>4.037009716033936</v>
+        <v>3.978778839111328</v>
       </c>
       <c r="E103">
-        <v>4.037922859191895</v>
+        <v>4.013584136962891</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>10996</v>
       </c>
       <c r="G103">
-        <v>4.043368594659105</v>
+        <v>3.994788404510321</v>
       </c>
       <c r="H103">
-        <v>4.045447635650635</v>
+        <v>3.991988837718964</v>
       </c>
       <c r="I103">
-        <v>4.044622802734375</v>
+        <v>3.994289596875509</v>
       </c>
       <c r="L103">
-        <v>45.9585456685107</v>
+        <v>58.05427248473222</v>
       </c>
       <c r="M103">
-        <v>48.92030778129074</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14">
+        <v>54.81416322532176</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B104">
-        <v>4.052824974060059</v>
+        <v>3.984289884567261</v>
       </c>
       <c r="C104">
-        <v>4.054403305053711</v>
+        <v>4.025042533874512</v>
       </c>
       <c r="D104">
-        <v>4.034501075744629</v>
+        <v>3.982669115066528</v>
       </c>
       <c r="E104">
-        <v>4.051859855651856</v>
+        <v>4.000059604644775</v>
       </c>
       <c r="F104">
-        <v>30675</v>
+        <v>365612</v>
       </c>
       <c r="G104">
-        <v>4.044140527476628</v>
+        <v>3.995267604522545</v>
       </c>
       <c r="H104">
-        <v>4.046113801002503</v>
+        <v>3.992200720310211</v>
       </c>
       <c r="I104">
-        <v>4.045920928319295</v>
+        <v>3.994099259376526</v>
       </c>
       <c r="L104">
-        <v>53.83812704401411</v>
+        <v>52.34281803850778</v>
       </c>
       <c r="M104">
-        <v>53.14701504874871</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14">
+        <v>50.78749613790576</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B105">
-        <v>4.051720142364502</v>
+        <v>4.000097751617432</v>
       </c>
       <c r="C105">
-        <v>4.052882194519043</v>
+        <v>4.027215003967285</v>
       </c>
       <c r="D105">
-        <v>4.032924175262451</v>
+        <v>4.000097751617432</v>
       </c>
       <c r="E105">
-        <v>4.051868915557861</v>
+        <v>4.00016975402832</v>
       </c>
       <c r="F105">
-        <v>5650</v>
+        <v>1188</v>
       </c>
       <c r="G105">
-        <v>4.044843108211285</v>
+        <v>3.995713254477615</v>
       </c>
       <c r="H105">
-        <v>4.046773290634155</v>
+        <v>3.992322683334351</v>
       </c>
       <c r="I105">
-        <v>4.046748256683349</v>
+        <v>3.994054929415385</v>
       </c>
       <c r="L105">
-        <v>53.84304880201977</v>
+        <v>52.38573825685145</v>
       </c>
       <c r="M105">
-        <v>53.1497290196793</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14">
+        <v>50.81918401643551</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B106">
-        <v>4.051098823547363</v>
+        <v>4.001445293426514</v>
       </c>
       <c r="C106">
-        <v>4.055080890655518</v>
+        <v>4.027971267700195</v>
       </c>
       <c r="D106">
-        <v>4.034472942352295</v>
+        <v>3.999185800552368</v>
       </c>
       <c r="E106">
-        <v>4.051366806030273</v>
+        <v>4.003427982330322</v>
       </c>
       <c r="F106">
-        <v>119</v>
+        <v>213</v>
       </c>
       <c r="G106">
-        <v>4.045436171649375</v>
+        <v>3.996414593373315</v>
       </c>
       <c r="H106">
-        <v>4.045453286170959</v>
+        <v>3.992823362350464</v>
       </c>
       <c r="I106">
-        <v>4.047000328699748</v>
+        <v>3.994140569368998</v>
       </c>
       <c r="L106">
-        <v>53.48748600528977</v>
+        <v>53.77121118065067</v>
       </c>
       <c r="M106">
-        <v>52.96661163711273</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14">
+        <v>51.80769059827756</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B107">
-        <v>4.054627418518066</v>
+        <v>4.001716613769531</v>
       </c>
       <c r="C107">
-        <v>4.058446884155273</v>
+        <v>4.027256011962891</v>
       </c>
       <c r="D107">
-        <v>4.034145832061768</v>
+        <v>3.999641180038452</v>
       </c>
       <c r="E107">
-        <v>4.057713031768799</v>
+        <v>4.001331329345703</v>
       </c>
       <c r="F107">
-        <v>156055</v>
+        <v>11435</v>
       </c>
       <c r="G107">
-        <v>4.046552249842049</v>
+        <v>3.996861569370805</v>
       </c>
       <c r="H107">
-        <v>4.047467136383057</v>
+        <v>3.993054580688477</v>
       </c>
       <c r="I107">
-        <v>4.04766321182251</v>
+        <v>3.994214630126953</v>
       </c>
       <c r="L107">
-        <v>57.48002567640545</v>
+        <v>52.66189577484755</v>
       </c>
       <c r="M107">
-        <v>55.07345976094888</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14">
+        <v>51.09598506915021</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B108">
-        <v>4.058359146118164</v>
+        <v>4.000562191009521</v>
       </c>
       <c r="C108">
-        <v>4.058689117431641</v>
+        <v>4.029034614562988</v>
       </c>
       <c r="D108">
-        <v>4.041961669921875</v>
+        <v>3.990684032440186</v>
       </c>
       <c r="E108">
-        <v>4.057291030883789</v>
+        <v>3.990684032440186</v>
       </c>
       <c r="F108">
-        <v>2411</v>
+        <v>129547</v>
       </c>
       <c r="G108">
-        <v>4.047528502664026</v>
+        <v>3.996299975104385</v>
       </c>
       <c r="H108">
-        <v>4.049296951293945</v>
+        <v>3.992841958999634</v>
       </c>
       <c r="I108">
-        <v>4.047858778635661</v>
+        <v>3.993867492675781</v>
       </c>
       <c r="L108">
-        <v>57.11327841063603</v>
+        <v>47.10951560281178</v>
       </c>
       <c r="M108">
-        <v>54.89735911682553</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14">
+        <v>47.52547651515034</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B109">
-        <v>4.05213451385498</v>
+        <v>4.007719039916992</v>
       </c>
       <c r="C109">
-        <v>4.067340850830078</v>
+        <v>4.012997150421143</v>
       </c>
       <c r="D109">
-        <v>4.05213451385498</v>
+        <v>3.989027500152588</v>
       </c>
       <c r="E109">
-        <v>4.058960437774658</v>
+        <v>3.992042303085327</v>
       </c>
       <c r="F109">
-        <v>11969</v>
+        <v>1028</v>
       </c>
       <c r="G109">
-        <v>4.048567769492265</v>
+        <v>3.995912914011743</v>
       </c>
       <c r="H109">
-        <v>4.050184082984924</v>
+        <v>3.992282426357269</v>
       </c>
       <c r="I109">
-        <v>4.047982947031657</v>
+        <v>3.993501925468445</v>
       </c>
       <c r="L109">
-        <v>58.29744805977752</v>
+        <v>47.89789890100481</v>
       </c>
       <c r="M109">
-        <v>55.50350603384595</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14">
+        <v>48.02444608604949</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B110">
-        <v>4.057479858398438</v>
+        <v>3.99196982383728</v>
       </c>
       <c r="C110">
-        <v>4.061830043792725</v>
+        <v>4.013328552246094</v>
       </c>
       <c r="D110">
-        <v>4.033535480499268</v>
+        <v>3.990299463272095</v>
       </c>
       <c r="E110">
-        <v>4.057992935180664</v>
+        <v>3.990987539291382</v>
       </c>
       <c r="F110">
-        <v>4100</v>
+        <v>5764</v>
       </c>
       <c r="G110">
-        <v>4.049424602736665</v>
+        <v>3.995465152673528</v>
       </c>
       <c r="H110">
-        <v>4.050558066368103</v>
+        <v>3.991889035701752</v>
       </c>
       <c r="I110">
-        <v>4.048689858118693</v>
+        <v>3.99309500058492</v>
       </c>
       <c r="L110">
-        <v>57.26650608362139</v>
+        <v>47.28218518037327</v>
       </c>
       <c r="M110">
-        <v>55.04182358749414</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14">
+        <v>47.64556612869465</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B111">
-        <v>4.053007125854492</v>
+        <v>4.012753009796143</v>
       </c>
       <c r="C111">
-        <v>4.067033290863037</v>
+        <v>4.01393985748291</v>
       </c>
       <c r="D111">
-        <v>4.005656242370605</v>
+        <v>3.988073825836182</v>
       </c>
       <c r="E111">
-        <v>4.005656242370605</v>
+        <v>4.011094093322754</v>
       </c>
       <c r="F111">
-        <v>99434</v>
+        <v>2338</v>
       </c>
       <c r="G111">
-        <v>4.045445660885205</v>
+        <v>3.996885965459822</v>
       </c>
       <c r="H111">
-        <v>4.048843836784362</v>
+        <v>3.992203509807587</v>
       </c>
       <c r="I111">
-        <v>4.046900367736816</v>
+        <v>3.99350909392039</v>
       </c>
       <c r="L111">
-        <v>27.58241921897716</v>
+        <v>58.67457117972072</v>
       </c>
       <c r="M111">
-        <v>37.07579076401912</v>
-      </c>
-      <c r="N111" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14">
+        <v>54.94297810965796</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B112">
-        <v>4.006100654602051</v>
+        <v>3.989704132080078</v>
       </c>
       <c r="C112">
-        <v>4.018533229827881</v>
+        <v>4.011894702911377</v>
       </c>
       <c r="D112">
-        <v>4.005216598510742</v>
+        <v>3.987470626831055</v>
       </c>
       <c r="E112">
-        <v>4.016349792480469</v>
+        <v>3.990580320358277</v>
       </c>
       <c r="F112">
-        <v>11693</v>
+        <v>10894</v>
       </c>
       <c r="G112">
-        <v>4.04280058193932</v>
+        <v>3.996312724996045</v>
       </c>
       <c r="H112">
-        <v>4.046616053581237</v>
+        <v>3.991492033004761</v>
       </c>
       <c r="I112">
-        <v>4.045529810587565</v>
+        <v>3.993880327542623</v>
       </c>
       <c r="L112">
-        <v>35.29229148385469</v>
+        <v>47.01346017934762</v>
       </c>
       <c r="M112">
-        <v>41.29231541271898</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14">
+        <v>47.64612554708604</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
       <c r="A113" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B113">
-        <v>4.018056869506836</v>
+        <v>3.99101710319519</v>
       </c>
       <c r="C113">
-        <v>4.018276214599609</v>
+        <v>4.010738372802734</v>
       </c>
       <c r="D113">
-        <v>3.984477996826172</v>
+        <v>3.987030267715454</v>
       </c>
       <c r="E113">
-        <v>3.990098476409912</v>
+        <v>3.989410400390625</v>
       </c>
       <c r="F113">
-        <v>912550</v>
+        <v>1019</v>
       </c>
       <c r="G113">
-        <v>4.038009481436646</v>
+        <v>3.995685240941007</v>
       </c>
       <c r="H113">
-        <v>4.043126440048217</v>
+        <v>3.990694832801819</v>
       </c>
       <c r="I113">
-        <v>4.043603674570719</v>
+        <v>3.993652137120565</v>
       </c>
       <c r="L113">
-        <v>27.27326001340532</v>
+        <v>46.42152716899959</v>
       </c>
       <c r="M113">
-        <v>35.07809403803568</v>
-      </c>
-      <c r="N113" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14">
+        <v>47.26063104952583</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
       <c r="A114" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B114">
-        <v>3.98819375038147</v>
+        <v>3.988872051239014</v>
       </c>
       <c r="C114">
-        <v>3.99813175201416</v>
+        <v>4.004944801330566</v>
       </c>
       <c r="D114">
-        <v>3.987224817276001</v>
+        <v>3.98154330253601</v>
       </c>
       <c r="E114">
-        <v>3.990947961807251</v>
+        <v>4.001121044158936</v>
       </c>
       <c r="F114">
-        <v>10268</v>
+        <v>15917</v>
       </c>
       <c r="G114">
-        <v>4.033731161470337</v>
+        <v>3.996179404869909</v>
       </c>
       <c r="H114">
-        <v>4.039750492572784</v>
+        <v>3.992045295238495</v>
       </c>
       <c r="I114">
-        <v>4.042017388343811</v>
+        <v>3.993828773498535</v>
       </c>
       <c r="L114">
-        <v>27.8699049019284</v>
+        <v>53.07477695213107</v>
       </c>
       <c r="M114">
-        <v>35.41680288852508</v>
-      </c>
-      <c r="N114" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14">
+        <v>51.4913939528285</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
       <c r="A115" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B115">
-        <v>4.001732349395752</v>
+        <v>3.983399868011475</v>
       </c>
       <c r="C115">
-        <v>4.008344650268555</v>
+        <v>4.010992527008057</v>
       </c>
       <c r="D115">
-        <v>3.988427639007568</v>
+        <v>3.976898670196533</v>
       </c>
       <c r="E115">
-        <v>4.005769729614258</v>
+        <v>3.987464189529419</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>7183</v>
       </c>
       <c r="G115">
-        <v>4.031189213119784</v>
+        <v>3.995387112566228</v>
       </c>
       <c r="H115">
-        <v>4.037517297267914</v>
+        <v>3.992734587192535</v>
       </c>
       <c r="I115">
-        <v>4.040920408566793</v>
+        <v>3.993486563364665</v>
       </c>
       <c r="L115">
-        <v>37.87427766750372</v>
+        <v>45.63935771511142</v>
       </c>
       <c r="M115">
-        <v>41.18272721427377</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14">
+        <v>46.77852974825574</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
       <c r="A116" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B116">
-        <v>4.003885746002197</v>
+        <v>3.988217830657959</v>
       </c>
       <c r="C116">
-        <v>4.00683069229126</v>
+        <v>3.993510484695435</v>
       </c>
       <c r="D116">
-        <v>3.98577094078064</v>
+        <v>3.985239982604981</v>
       </c>
       <c r="E116">
-        <v>4.001499652862549</v>
+        <v>3.989265918731689</v>
       </c>
       <c r="F116">
-        <v>4620</v>
+        <v>0</v>
       </c>
       <c r="G116">
-        <v>4.028490162187309</v>
+        <v>3.994830640399452</v>
       </c>
       <c r="H116">
-        <v>4.036282455921173</v>
+        <v>3.994308388233185</v>
       </c>
       <c r="I116">
-        <v>4.038378167152405</v>
+        <v>3.993348280588786</v>
       </c>
       <c r="L116">
-        <v>36.2449477330609</v>
+        <v>46.7466332544963</v>
       </c>
       <c r="M116">
-        <v>40.07273796240015</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14">
+        <v>47.46173239465398</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
       <c r="A117" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B117">
-        <v>3.99702000617981</v>
+        <v>3.991008758544922</v>
       </c>
       <c r="C117">
-        <v>4.00495719909668</v>
+        <v>3.99622654914856</v>
       </c>
       <c r="D117">
-        <v>3.985864400863648</v>
+        <v>3.987787246704102</v>
       </c>
       <c r="E117">
-        <v>4.000858783721924</v>
+        <v>3.990687608718872</v>
       </c>
       <c r="F117">
-        <v>693</v>
+        <v>6139</v>
       </c>
       <c r="G117">
-        <v>4.025978218690455</v>
+        <v>3.994454001155762</v>
       </c>
       <c r="H117">
-        <v>4.033845937252044</v>
+        <v>3.995501053333283</v>
       </c>
       <c r="I117">
-        <v>4.037825592358907</v>
+        <v>3.9931476354599</v>
       </c>
       <c r="L117">
-        <v>35.98357804222859</v>
+        <v>47.69244233398388</v>
       </c>
       <c r="M117">
-        <v>39.89892457552448</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14">
+        <v>48.02865877662081</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
       <c r="A118" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B118">
-        <v>3.998625040054321</v>
+        <v>3.990055084228516</v>
       </c>
       <c r="C118">
-        <v>4.002943992614746</v>
+        <v>4.021055221557617</v>
       </c>
       <c r="D118">
-        <v>3.986667394638062</v>
+        <v>3.98678994178772</v>
       </c>
       <c r="E118">
-        <v>3.999109506607056</v>
+        <v>3.98678994178772</v>
       </c>
       <c r="F118">
-        <v>2355</v>
+        <v>11198</v>
       </c>
       <c r="G118">
-        <v>4.023535608501056</v>
+        <v>3.99375726848594</v>
       </c>
       <c r="H118">
-        <v>4.03155210018158</v>
+        <v>3.995798337459565</v>
       </c>
       <c r="I118">
-        <v>4.037106084823608</v>
+        <v>3.99287608464559</v>
       </c>
       <c r="L118">
-        <v>35.20403171972831</v>
+        <v>45.21560709652472</v>
       </c>
       <c r="M118">
-        <v>39.39662003082321</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14">
+        <v>46.54574662745478</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
       <c r="A119" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B119">
-        <v>3.98990273475647</v>
+        <v>3.988456010818481</v>
       </c>
       <c r="C119">
-        <v>4.002000331878662</v>
+        <v>4.023179531097412</v>
       </c>
       <c r="D119">
-        <v>3.984869956970215</v>
+        <v>3.988418579101562</v>
       </c>
       <c r="E119">
-        <v>4.001098155975342</v>
+        <v>3.992858171463013</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="G119">
-        <v>4.021495840089627</v>
+        <v>3.993675532392947</v>
       </c>
       <c r="H119">
-        <v>4.029085993766785</v>
+        <v>3.996812355518342</v>
       </c>
       <c r="I119">
-        <v>4.035768763224284</v>
+        <v>3.992530258496603</v>
       </c>
       <c r="L119">
-        <v>36.95093302901944</v>
+        <v>49.7833832409992</v>
       </c>
       <c r="M119">
-        <v>40.31652779457896</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14">
+        <v>49.17673826091939</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
       <c r="A120" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B120">
-        <v>3.995540857315064</v>
+        <v>3.990027904510498</v>
       </c>
       <c r="C120">
-        <v>4.003167629241943</v>
+        <v>4.025420188903809</v>
       </c>
       <c r="D120">
-        <v>3.984841585159302</v>
+        <v>3.978704929351807</v>
       </c>
       <c r="E120">
-        <v>4.00300931930542</v>
+        <v>3.986630201339722</v>
       </c>
       <c r="F120">
-        <v>13418</v>
+        <v>4503</v>
       </c>
       <c r="G120">
-        <v>4.019815247291063</v>
+        <v>3.993035047751744</v>
       </c>
       <c r="H120">
-        <v>4.026528573036193</v>
+        <v>3.996194124221803</v>
       </c>
       <c r="I120">
-        <v>4.034185298283895</v>
+        <v>3.992122753461202</v>
       </c>
       <c r="L120">
-        <v>38.73665244150912</v>
+        <v>45.41166267324044</v>
       </c>
       <c r="M120">
-        <v>41.23964348053767</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14">
+        <v>46.63950539023953</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
       <c r="A121" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B121">
-        <v>4.003072738647461</v>
+        <v>3.985568046569824</v>
       </c>
       <c r="C121">
-        <v>4.007250785827637</v>
+        <v>4.025047779083252</v>
       </c>
       <c r="D121">
-        <v>3.981145858764648</v>
+        <v>3.97789192199707</v>
       </c>
       <c r="E121">
-        <v>4.003195285797119</v>
+        <v>3.993842363357544</v>
       </c>
       <c r="F121">
-        <v>4023</v>
+        <v>185953</v>
       </c>
       <c r="G121">
-        <v>4.018304341700704</v>
+        <v>3.993108440079544</v>
       </c>
       <c r="H121">
-        <v>4.024076867103576</v>
+        <v>3.994925916194917</v>
       </c>
       <c r="I121">
-        <v>4.032960446675618</v>
+        <v>3.991757345199586</v>
       </c>
       <c r="L121">
-        <v>38.92600896581342</v>
+        <v>51.01564616329777</v>
       </c>
       <c r="M121">
-        <v>41.33472688516093</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14">
+        <v>49.86534155880473</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
       <c r="A122" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B122">
-        <v>4.003635406494141</v>
+        <v>3.995966911315918</v>
       </c>
       <c r="C122">
-        <v>4.006579399108887</v>
+        <v>4.029212951660156</v>
       </c>
       <c r="D122">
-        <v>3.984433650970459</v>
+        <v>3.988364219665527</v>
       </c>
       <c r="E122">
-        <v>3.998671293258667</v>
+        <v>4.000450134277344</v>
       </c>
       <c r="F122">
-        <v>3212</v>
+        <v>328514</v>
       </c>
       <c r="G122">
-        <v>4.016519519115064</v>
+        <v>3.993775866824798</v>
       </c>
       <c r="H122">
-        <v>4.022062003612518</v>
+        <v>3.995624053478241</v>
       </c>
       <c r="I122">
-        <v>4.030885974566142</v>
+        <v>3.991612021128337</v>
       </c>
       <c r="L122">
-        <v>35.89006662969881</v>
+        <v>55.7028592897888</v>
       </c>
       <c r="M122">
-        <v>39.65369545339521</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14">
+        <v>52.68744574316548</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
       <c r="A123" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B123">
-        <v>3.987697839736938</v>
+        <v>4.005501270294189</v>
       </c>
       <c r="C123">
-        <v>4.004825115203857</v>
+        <v>4.03058385848999</v>
       </c>
       <c r="D123">
-        <v>3.979443311691284</v>
+        <v>3.998667478561402</v>
       </c>
       <c r="E123">
-        <v>3.979443311691284</v>
+        <v>4.023316860198975</v>
       </c>
       <c r="F123">
-        <v>9272</v>
+        <v>1332</v>
       </c>
       <c r="G123">
-        <v>4.013148954803811</v>
+        <v>3.996461411676996</v>
       </c>
       <c r="H123">
-        <v>4.019138026237488</v>
+        <v>3.996110689640045</v>
       </c>
       <c r="I123">
-        <v>4.028204393386841</v>
+        <v>3.99221076965332</v>
       </c>
       <c r="L123">
-        <v>26.14137379313087</v>
+        <v>67.72587319135059</v>
       </c>
       <c r="M123">
-        <v>33.4306607551969</v>
-      </c>
-      <c r="N123" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14">
+        <v>60.89167658563748</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
       <c r="A124" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B124">
-        <v>3.996787786483765</v>
+        <v>4.001658916473389</v>
       </c>
       <c r="C124">
-        <v>4.0030198097229</v>
+        <v>4.029964923858643</v>
       </c>
       <c r="D124">
-        <v>3.978085279464722</v>
+        <v>3.999605178833008</v>
       </c>
       <c r="E124">
-        <v>3.996256113052368</v>
+        <v>4.00462818145752</v>
       </c>
       <c r="F124">
-        <v>9989</v>
+        <v>2114</v>
       </c>
       <c r="G124">
-        <v>4.011613241917316</v>
+        <v>3.997203845293407</v>
       </c>
       <c r="H124">
-        <v>4.016357839107513</v>
+        <v>3.996339118480683</v>
       </c>
       <c r="I124">
-        <v>4.02613070011139</v>
+        <v>3.993227982521057</v>
       </c>
       <c r="L124">
-        <v>41.71494576770724</v>
+        <v>54.20003079072271</v>
       </c>
       <c r="M124">
-        <v>42.0015522018796</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14">
+        <v>52.82877574566534</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
       <c r="A125" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B125">
-        <v>3.995734214782715</v>
+        <v>4.005963325500488</v>
       </c>
       <c r="C125">
-        <v>4.004832267761231</v>
+        <v>4.030002593994141</v>
       </c>
       <c r="D125">
-        <v>3.985998868942261</v>
+        <v>4.00046968460083</v>
       </c>
       <c r="E125">
-        <v>3.995821952819824</v>
+        <v>4.02391242980957</v>
       </c>
       <c r="F125">
-        <v>11369</v>
+        <v>15368</v>
       </c>
       <c r="G125">
-        <v>4.01017767018118</v>
+        <v>3.99963189843124</v>
       </c>
       <c r="H125">
-        <v>4.013555490970612</v>
+        <v>3.997526252269746</v>
       </c>
       <c r="I125">
-        <v>4.024310310681661</v>
+        <v>3.99490245183309</v>
       </c>
       <c r="L125">
-        <v>41.46097193708651</v>
+        <v>62.819839204405</v>
       </c>
       <c r="M125">
-        <v>41.85170124946327</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14">
+        <v>58.87941756646535</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
       <c r="A126" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B126">
-        <v>3.995349407196045</v>
+        <v>4.03028678894043</v>
       </c>
       <c r="C126">
-        <v>4.002390861511231</v>
+        <v>4.03028678894043</v>
       </c>
       <c r="D126">
-        <v>3.97878360748291</v>
+        <v>4.004968166351318</v>
       </c>
       <c r="E126">
-        <v>3.997730493545532</v>
+        <v>4.028447151184082</v>
       </c>
       <c r="F126">
-        <v>3621</v>
+        <v>0</v>
       </c>
       <c r="G126">
-        <v>4.009046108668849</v>
+        <v>4.002251466863316</v>
       </c>
       <c r="H126">
-        <v>4.010873675346375</v>
+        <v>3.998777210712434</v>
       </c>
       <c r="I126">
-        <v>4.023361444473267</v>
+        <v>3.997257693608602</v>
       </c>
       <c r="L126">
-        <v>43.17202462393814</v>
+        <v>64.58320378913238</v>
       </c>
       <c r="M126">
-        <v>42.81751474072607</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14">
+        <v>60.17311643077325</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
       <c r="A127" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B127">
-        <v>3.996854543685913</v>
+        <v>4.027993679046631</v>
       </c>
       <c r="C127">
-        <v>4.00042200088501</v>
+        <v>4.065235137939453</v>
       </c>
       <c r="D127">
-        <v>3.978764057159424</v>
+        <v>4.023128986358643</v>
       </c>
       <c r="E127">
-        <v>3.993414402008057</v>
+        <v>4.062760353088379</v>
       </c>
       <c r="F127">
-        <v>35819</v>
+        <v>267549</v>
       </c>
       <c r="G127">
-        <v>4.007625044426958</v>
+        <v>4.007752274701958</v>
       </c>
       <c r="H127">
-        <v>4.007658743858338</v>
+        <v>4.001848661899567</v>
       </c>
       <c r="I127">
-        <v>4.021488952636719</v>
+        <v>4.000455228487651</v>
       </c>
       <c r="L127">
-        <v>40.18381680393659</v>
+        <v>74.76955959824413</v>
       </c>
       <c r="M127">
-        <v>41.15283788125333</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14">
+        <v>68.30006680157162</v>
+      </c>
+      <c r="O127" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
       <c r="A128" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B128">
-        <v>3.993201017379761</v>
+        <v>4.06165075302124</v>
       </c>
       <c r="C128">
-        <v>4.002143383026123</v>
+        <v>4.068128108978272</v>
       </c>
       <c r="D128">
-        <v>3.980553150177002</v>
+        <v>4.059651374816895</v>
       </c>
       <c r="E128">
-        <v>3.996706962585449</v>
+        <v>4.060705184936523</v>
       </c>
       <c r="F128">
-        <v>21646</v>
+        <v>223</v>
       </c>
       <c r="G128">
-        <v>4.006632491532275</v>
+        <v>4.012566175632373</v>
       </c>
       <c r="H128">
-        <v>4.00462954044342</v>
+        <v>4.005349719524384</v>
       </c>
       <c r="I128">
-        <v>4.019879643122355</v>
+        <v>4.003117259343465</v>
       </c>
       <c r="L128">
-        <v>43.53780688961928</v>
+        <v>73.34809179491077</v>
       </c>
       <c r="M128">
-        <v>42.97424626542826</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14">
+        <v>67.41277939952316</v>
+      </c>
+      <c r="O128" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
       <c r="A129" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B129">
-        <v>3.993052005767822</v>
+        <v>4.060810089111328</v>
       </c>
       <c r="C129">
-        <v>4.001917362213135</v>
+        <v>4.062478542327881</v>
       </c>
       <c r="D129">
-        <v>3.982352256774902</v>
+        <v>4.038110256195068</v>
       </c>
       <c r="E129">
-        <v>3.994936466217041</v>
+        <v>4.060760021209717</v>
       </c>
       <c r="F129">
-        <v>2762</v>
+        <v>264</v>
       </c>
       <c r="G129">
-        <v>4.005569216503617</v>
+        <v>4.016947434321223</v>
       </c>
       <c r="H129">
-        <v>4.001428341865539</v>
+        <v>4.008785605430604</v>
       </c>
       <c r="I129">
-        <v>4.018030182520548</v>
+        <v>4.006056666374207</v>
       </c>
       <c r="L129">
-        <v>42.1094509522249</v>
+        <v>73.36329257365924</v>
       </c>
       <c r="M129">
-        <v>42.21755138154496</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14">
+        <v>67.42493940226124</v>
+      </c>
+      <c r="O129" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
       <c r="A130" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B130">
-        <v>3.994630575180054</v>
+        <v>4.060880661010742</v>
       </c>
       <c r="C130">
-        <v>4.007627010345459</v>
+        <v>4.083198547363281</v>
       </c>
       <c r="D130">
-        <v>3.992976427078247</v>
+        <v>4.055546760559082</v>
       </c>
       <c r="E130">
-        <v>4.003232955932617</v>
+        <v>4.083100318908691</v>
       </c>
       <c r="F130">
-        <v>4006</v>
+        <v>15869</v>
       </c>
       <c r="G130">
-        <v>4.005356829178981</v>
+        <v>4.022961332920083</v>
       </c>
       <c r="H130">
-        <v>3.998690342903137</v>
+        <v>4.013391244411469</v>
       </c>
       <c r="I130">
-        <v>4.016332689921061</v>
+        <v>4.008860182762146</v>
       </c>
       <c r="L130">
-        <v>50.64535943905994</v>
+        <v>78.88327444793208</v>
       </c>
       <c r="M130">
-        <v>46.93298076836812</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14">
+        <v>72.00773149848995</v>
+      </c>
+      <c r="O130" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
       <c r="A131" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B131">
-        <v>4.006031036376953</v>
+        <v>4.08251953125</v>
       </c>
       <c r="C131">
-        <v>4.009318351745605</v>
+        <v>4.083898067474365</v>
       </c>
       <c r="D131">
-        <v>3.993959426879883</v>
+        <v>4.079066276550293</v>
       </c>
       <c r="E131">
-        <v>3.998855352401733</v>
+        <v>4.08380937576294</v>
       </c>
       <c r="F131">
-        <v>8880</v>
+        <v>14127</v>
       </c>
       <c r="G131">
-        <v>4.004765785835594</v>
+        <v>4.028492973178524</v>
       </c>
       <c r="H131">
-        <v>3.998350298404694</v>
+        <v>4.017027008533478</v>
       </c>
       <c r="I131">
-        <v>4.014553554852804</v>
+        <v>4.011013611157735</v>
       </c>
       <c r="L131">
-        <v>46.56933579240671</v>
+        <v>79.0383797294749</v>
       </c>
       <c r="M131">
-        <v>44.85307226689095</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14">
+        <v>72.14169190203441</v>
+      </c>
+      <c r="O131" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
       <c r="A132" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B132">
-        <v>3.997990846633911</v>
+        <v>4.08217191696167</v>
       </c>
       <c r="C132">
-        <v>4.010096549987793</v>
+        <v>4.084254741668701</v>
       </c>
       <c r="D132">
-        <v>3.978682994842529</v>
+        <v>4.026715755462647</v>
       </c>
       <c r="E132">
-        <v>4.004804611206055</v>
+        <v>4.032749176025391</v>
       </c>
       <c r="F132">
-        <v>504</v>
+        <v>808460</v>
       </c>
       <c r="G132">
-        <v>4.004769315414727</v>
+        <v>4.028879900710058</v>
       </c>
       <c r="H132">
-        <v>3.997773039340973</v>
+        <v>4.019135451316834</v>
       </c>
       <c r="I132">
-        <v>4.013414756457011</v>
+        <v>4.01255567073822</v>
       </c>
       <c r="L132">
-        <v>52.42354303182375</v>
+        <v>49.55226744419052</v>
       </c>
       <c r="M132">
-        <v>48.21204133454605</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14">
+        <v>52.61482338554117</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
       <c r="A133" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B133">
-        <v>4.008343696594238</v>
+        <v>4.032071113586426</v>
       </c>
       <c r="C133">
-        <v>4.010416984558105</v>
+        <v>4.060013294219971</v>
       </c>
       <c r="D133">
-        <v>3.986278533935547</v>
+        <v>4.021415710449219</v>
       </c>
       <c r="E133">
-        <v>4.004809856414795</v>
+        <v>4.021415710449219</v>
       </c>
       <c r="F133">
-        <v>240842</v>
+        <v>9984</v>
       </c>
       <c r="G133">
-        <v>4.004773000960188</v>
+        <v>4.028201337959072</v>
       </c>
       <c r="H133">
-        <v>3.998508608341217</v>
+        <v>4.020735716819764</v>
       </c>
       <c r="I133">
-        <v>4.012310989697775</v>
+        <v>4.012816723187765</v>
       </c>
       <c r="L133">
-        <v>52.42871284511241</v>
+        <v>45.32953563850531</v>
       </c>
       <c r="M133">
-        <v>48.21503616993694</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14">
+        <v>49.41746273472243</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
       <c r="A134" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B134">
-        <v>4.008169174194336</v>
+        <v>4.026118278503418</v>
       </c>
       <c r="C134">
-        <v>4.008640766143799</v>
+        <v>4.066420555114746</v>
       </c>
       <c r="D134">
-        <v>3.97148871421814</v>
+        <v>4.015278339385986</v>
       </c>
       <c r="E134">
-        <v>4.005354404449463</v>
+        <v>4.059206962585449</v>
       </c>
       <c r="F134">
-        <v>2938</v>
+        <v>628837</v>
       </c>
       <c r="G134">
-        <v>4.004825855822848</v>
+        <v>4.031020031106925</v>
       </c>
       <c r="H134">
-        <v>3.999228930473328</v>
+        <v>4.023640012741089</v>
       </c>
       <c r="I134">
-        <v>4.010760807991028</v>
+        <v>4.014788301785788</v>
       </c>
       <c r="L134">
-        <v>53.02489159746499</v>
+        <v>58.57283637237473</v>
       </c>
       <c r="M134">
-        <v>48.54770112326754</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14">
+        <v>58.47836062569253</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
       <c r="A135" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B135">
-        <v>4.003530025482178</v>
+        <v>4.061100482940674</v>
       </c>
       <c r="C135">
-        <v>4.009269714355469</v>
+        <v>4.079490184783936</v>
       </c>
       <c r="D135">
-        <v>3.968780755996704</v>
+        <v>4.034755706787109</v>
       </c>
       <c r="E135">
-        <v>3.974111795425415</v>
+        <v>4.074949741363525</v>
       </c>
       <c r="F135">
-        <v>1202</v>
+        <v>1322614</v>
       </c>
       <c r="G135">
-        <v>4.002033668513991</v>
+        <v>4.035013641130252</v>
       </c>
       <c r="H135">
-        <v>3.997646033763885</v>
+        <v>4.028014290332794</v>
       </c>
       <c r="I135">
-        <v>4.008168903986613</v>
+        <v>4.017280968030295</v>
       </c>
       <c r="L135">
-        <v>29.31332356082333</v>
+        <v>62.79633045657239</v>
       </c>
       <c r="M135">
-        <v>34.753473857288</v>
-      </c>
-      <c r="N135" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14">
+        <v>61.56688482139357</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
       <c r="A136" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B136">
-        <v>3.97188925743103</v>
+        <v>4.076120376586914</v>
       </c>
       <c r="C136">
-        <v>3.981448411941528</v>
+        <v>4.080578804016113</v>
       </c>
       <c r="D136">
-        <v>3.9654541015625</v>
+        <v>4.073337554931641</v>
       </c>
       <c r="E136">
-        <v>3.973678350448608</v>
+        <v>4.074465274810791</v>
       </c>
       <c r="F136">
-        <v>1679</v>
+        <v>3210</v>
       </c>
       <c r="G136">
-        <v>3.999455912326229</v>
+        <v>4.038600153283029</v>
       </c>
       <c r="H136">
-        <v>3.996254968643188</v>
+        <v>4.032274258136749</v>
       </c>
       <c r="I136">
-        <v>4.005579288800558</v>
+        <v>4.019648877779643</v>
       </c>
       <c r="L136">
-        <v>29.11015142198045</v>
+        <v>62.57546606044276</v>
       </c>
       <c r="M136">
-        <v>34.60656143475462</v>
-      </c>
-      <c r="N136" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14">
+        <v>61.41548634631363</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
       <c r="A137" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B137">
-        <v>3.973466396331787</v>
+        <v>4.074563980102539</v>
       </c>
       <c r="C137">
-        <v>3.978044748306274</v>
+        <v>4.079606533050537</v>
       </c>
       <c r="D137">
-        <v>3.948304891586304</v>
+        <v>4.074563980102539</v>
       </c>
       <c r="E137">
-        <v>3.957789897918701</v>
+        <v>4.075620651245117</v>
       </c>
       <c r="F137">
-        <v>9135</v>
+        <v>3256</v>
       </c>
       <c r="G137">
-        <v>3.995668092834635</v>
+        <v>4.041965653097764</v>
       </c>
       <c r="H137">
-        <v>3.994101524353027</v>
+        <v>4.036520910263062</v>
       </c>
       <c r="I137">
-        <v>4.00224851767222</v>
+        <v>4.022125188509624</v>
       </c>
       <c r="L137">
-        <v>22.63929065881756</v>
+        <v>62.92531546491871</v>
       </c>
       <c r="M137">
-        <v>29.65745798432904</v>
-      </c>
-      <c r="N137" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14">
+        <v>61.65764361548182</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
       <c r="A138" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B138">
-        <v>3.958366632461548</v>
+        <v>4.075719356536865</v>
       </c>
       <c r="C138">
-        <v>3.985286235809326</v>
+        <v>4.080492973327637</v>
       </c>
       <c r="D138">
-        <v>3.950961112976074</v>
+        <v>4.074957847595215</v>
       </c>
       <c r="E138">
-        <v>3.966834306716919</v>
+        <v>4.07699728012085</v>
       </c>
       <c r="F138">
-        <v>7666</v>
+        <v>4411</v>
       </c>
       <c r="G138">
-        <v>3.993046839551206</v>
+        <v>4.045150346463498</v>
       </c>
       <c r="H138">
-        <v>3.992487764358521</v>
+        <v>4.041031277179718</v>
       </c>
       <c r="I138">
-        <v>3.999233293533325</v>
+        <v>4.025002296765646</v>
       </c>
       <c r="L138">
-        <v>32.27954638314138</v>
+        <v>63.38413294268074</v>
       </c>
       <c r="M138">
-        <v>35.32731660902877</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14">
+        <v>61.96395132482557</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
       <c r="A139" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B139">
-        <v>3.968741893768311</v>
+        <v>4.077964305877686</v>
       </c>
       <c r="C139">
-        <v>4.012299537658691</v>
+        <v>4.084244251251221</v>
       </c>
       <c r="D139">
-        <v>3.961609601974487</v>
+        <v>4.077530384063721</v>
       </c>
       <c r="E139">
-        <v>3.980844259262085</v>
+        <v>4.084017753601074</v>
       </c>
       <c r="F139">
-        <v>10331</v>
+        <v>3008</v>
       </c>
       <c r="G139">
-        <v>3.991937514070377</v>
+        <v>4.048683747112369</v>
       </c>
       <c r="H139">
-        <v>3.991475069522858</v>
+        <v>4.045589256286621</v>
       </c>
       <c r="I139">
-        <v>3.99662942091624</v>
+        <v>4.028068145116171</v>
       </c>
       <c r="L139">
-        <v>44.36185114694077</v>
+        <v>65.8115476606056</v>
       </c>
       <c r="M139">
-        <v>42.99257438681084</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14">
+        <v>63.56262710935299</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
       <c r="A140" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B140">
-        <v>4.010465145111084</v>
+        <v>4.084391593933105</v>
       </c>
       <c r="C140">
-        <v>4.011868000030518</v>
+        <v>4.084846496582031</v>
       </c>
       <c r="D140">
-        <v>3.971190929412842</v>
+        <v>4.050076484680176</v>
       </c>
       <c r="E140">
-        <v>3.972577810287476</v>
+        <v>4.056349277496338</v>
       </c>
       <c r="F140">
-        <v>3144</v>
+        <v>250709</v>
       </c>
       <c r="G140">
-        <v>3.990177540999204</v>
+        <v>4.049380613510912</v>
       </c>
       <c r="H140">
-        <v>3.989953494071961</v>
+        <v>4.049075210094452</v>
       </c>
       <c r="I140">
-        <v>3.993782250086467</v>
+        <v>4.030246869723003</v>
       </c>
       <c r="L140">
-        <v>39.66436719414032</v>
+        <v>50.8616967429919</v>
       </c>
       <c r="M140">
-        <v>39.9814323567379</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14">
+        <v>53.94026684174158</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15">
       <c r="A141" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B141">
-        <v>3.972319602966309</v>
+        <v>4.058410167694092</v>
       </c>
       <c r="C141">
-        <v>4.021392822265625</v>
+        <v>4.063560009002686</v>
       </c>
       <c r="D141">
-        <v>3.971091032028198</v>
+        <v>4.030984401702881</v>
       </c>
       <c r="E141">
-        <v>3.998994827270508</v>
+        <v>4.043564319610596</v>
       </c>
       <c r="F141">
-        <v>463894</v>
+        <v>2799</v>
       </c>
       <c r="G141">
-        <v>3.990979112478413</v>
+        <v>4.048851859519973</v>
       </c>
       <c r="H141">
-        <v>3.98974347114563</v>
+        <v>4.051561307907105</v>
       </c>
       <c r="I141">
-        <v>3.993560202916463</v>
+        <v>4.031329210599264</v>
       </c>
       <c r="L141">
-        <v>56.3004179503229</v>
+        <v>45.48993592689391</v>
       </c>
       <c r="M141">
-        <v>51.63845036286882</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14">
+        <v>50.16150858938501</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15">
       <c r="A142" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B142">
-        <v>3.999199628829956</v>
+        <v>4.043281078338623</v>
       </c>
       <c r="C142">
-        <v>4.02234411239624</v>
+        <v>4.077433109283447</v>
       </c>
       <c r="D142">
-        <v>3.997230291366577</v>
+        <v>4.039698600769043</v>
       </c>
       <c r="E142">
-        <v>4.019206523895264</v>
+        <v>4.077433109283447</v>
       </c>
       <c r="F142">
         <v>0</v>
       </c>
       <c r="G142">
-        <v>3.993545240789036</v>
+        <v>4.051450154953017</v>
       </c>
       <c r="H142">
-        <v>3.99077023267746</v>
+        <v>4.05541045665741</v>
       </c>
       <c r="I142">
-        <v>3.993655427296956</v>
+        <v>4.034224303563437</v>
       </c>
       <c r="L142">
-        <v>64.68228051387293</v>
+        <v>58.53989428158512</v>
       </c>
       <c r="M142">
-        <v>58.3101416055384</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14">
+        <v>58.46300128027901</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15">
       <c r="A143" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B143">
-        <v>3.998753309249878</v>
+        <v>4.077762603759766</v>
       </c>
       <c r="C143">
-        <v>4.019111633300781</v>
+        <v>4.077762603759766</v>
       </c>
       <c r="D143">
-        <v>3.98002028465271</v>
+        <v>4.066948890686035</v>
       </c>
       <c r="E143">
-        <v>3.98648738861084</v>
+        <v>4.076239109039307</v>
       </c>
       <c r="F143">
-        <v>4004</v>
+        <v>7286</v>
       </c>
       <c r="G143">
-        <v>3.992903617863746</v>
+        <v>4.053703696233589</v>
       </c>
       <c r="H143">
-        <v>3.991122436523438</v>
+        <v>4.058056569099426</v>
       </c>
       <c r="I143">
-        <v>3.993535057703654</v>
+        <v>4.037118593851726</v>
       </c>
       <c r="L143">
-        <v>47.9371930141995</v>
+        <v>57.98929263557343</v>
       </c>
       <c r="M143">
-        <v>47.00526205995042</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14">
+        <v>58.09561403883995</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
       <c r="A144" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B144">
-        <v>3.987236738204956</v>
+        <v>4.076648712158203</v>
       </c>
       <c r="C144">
-        <v>4.013584136962891</v>
+        <v>4.077802658081055</v>
       </c>
       <c r="D144">
-        <v>3.978778839111328</v>
+        <v>4.068253517150879</v>
       </c>
       <c r="E144">
-        <v>4.013584136962891</v>
+        <v>4.071830749511719</v>
       </c>
       <c r="F144">
-        <v>10996</v>
+        <v>4381</v>
       </c>
       <c r="G144">
-        <v>3.994783665054577</v>
+        <v>4.055351610167964</v>
       </c>
       <c r="H144">
-        <v>3.991988837718964</v>
+        <v>4.061416697502136</v>
       </c>
       <c r="I144">
-        <v>3.994289596875509</v>
+        <v>4.039475584030152</v>
       </c>
       <c r="L144">
-        <v>58.05432035739683</v>
+        <v>55.80899933371578</v>
       </c>
       <c r="M144">
-        <v>54.81775585063418</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13">
+        <v>56.67941085904675</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14">
       <c r="A145" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B145">
-        <v>3.984289884567261</v>
+        <v>4.070608139038086</v>
       </c>
       <c r="C145">
-        <v>4.025042533874512</v>
+        <v>4.078588485717773</v>
       </c>
       <c r="D145">
-        <v>3.982669115066528</v>
+        <v>4.068829536437988</v>
       </c>
       <c r="E145">
-        <v>4.000059604644775</v>
+        <v>4.077079772949219</v>
       </c>
       <c r="F145">
-        <v>365612</v>
+        <v>25450</v>
       </c>
       <c r="G145">
-        <v>3.995263295926413</v>
+        <v>4.057326897693533</v>
       </c>
       <c r="H145">
-        <v>3.992200720310211</v>
+        <v>4.064075064659119</v>
       </c>
       <c r="I145">
-        <v>3.994099259376526</v>
+        <v>4.042462770144144</v>
       </c>
       <c r="L145">
-        <v>52.34288941499982</v>
+        <v>57.92792197001407</v>
       </c>
       <c r="M145">
-        <v>50.79290535661629</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13">
+        <v>57.99250303118696</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14">
       <c r="A146" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B146">
-        <v>4.000097751617432</v>
+        <v>4.077655792236328</v>
       </c>
       <c r="C146">
-        <v>4.027215003967285</v>
+        <v>4.077655792236328</v>
       </c>
       <c r="D146">
-        <v>4.000097751617432</v>
+        <v>4.068116664886475</v>
       </c>
       <c r="E146">
-        <v>4.00016975402832</v>
+        <v>4.068116664886475</v>
       </c>
       <c r="F146">
-        <v>1188</v>
+        <v>5710</v>
       </c>
       <c r="G146">
-        <v>3.995709337572041</v>
+        <v>4.058307785620164</v>
       </c>
       <c r="H146">
-        <v>3.992322683334351</v>
+        <v>4.066058540344239</v>
       </c>
       <c r="I146">
-        <v>3.994054929415385</v>
+        <v>4.045091128349304</v>
       </c>
       <c r="L146">
-        <v>52.38580935723453</v>
+        <v>53.04213111427636</v>
       </c>
       <c r="M146">
-        <v>50.82457339298749</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13">
+        <v>54.9306763150618</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14">
       <c r="A147" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B147">
-        <v>4.001445293426514</v>
+        <v>4.070649147033691</v>
       </c>
       <c r="C147">
-        <v>4.027971267700195</v>
+        <v>4.077445507049561</v>
       </c>
       <c r="D147">
-        <v>3.999185800552368</v>
+        <v>4.013035774230957</v>
       </c>
       <c r="E147">
-        <v>4.003427982330322</v>
+        <v>4.018363952636719</v>
       </c>
       <c r="F147">
-        <v>213</v>
+        <v>825285</v>
       </c>
       <c r="G147">
-        <v>3.996411032550066</v>
+        <v>4.054676528076214</v>
       </c>
       <c r="H147">
-        <v>3.992823362350464</v>
+        <v>4.063838720321655</v>
       </c>
       <c r="I147">
-        <v>3.994140569368998</v>
+        <v>4.046013673146565</v>
       </c>
       <c r="L147">
-        <v>53.77127357331165</v>
+        <v>34.7431539630309</v>
       </c>
       <c r="M147">
-        <v>51.81247157739917</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13">
+        <v>41.75299040280562</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14">
       <c r="A148" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B148">
-        <v>4.001716613769531</v>
+        <v>4.013670921325684</v>
       </c>
       <c r="C148">
-        <v>4.027256011962891</v>
+        <v>4.053069114685059</v>
       </c>
       <c r="D148">
-        <v>3.999641180038452</v>
+        <v>4.011887550354004</v>
       </c>
       <c r="E148">
-        <v>4.001331329345703</v>
+        <v>4.049969673156738</v>
       </c>
       <c r="F148">
-        <v>11435</v>
+        <v>26864</v>
       </c>
       <c r="G148">
-        <v>3.99685833225876</v>
+        <v>4.054248632174443</v>
       </c>
       <c r="H148">
-        <v>3.993054580688477</v>
+        <v>4.063301944732666</v>
       </c>
       <c r="I148">
-        <v>3.994214630126953</v>
+        <v>4.0481196641922</v>
       </c>
       <c r="L148">
-        <v>52.66196208625563</v>
+        <v>47.65009210914752</v>
       </c>
       <c r="M148">
-        <v>51.10105554146055</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13">
+        <v>49.9647121693729</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14">
       <c r="A149" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B149">
-        <v>4.000562191009521</v>
+        <v>4.049689292907715</v>
       </c>
       <c r="C149">
-        <v>4.029034614562988</v>
+        <v>4.064146518707275</v>
       </c>
       <c r="D149">
-        <v>3.990684032440186</v>
+        <v>4.048707962036133</v>
       </c>
       <c r="E149">
-        <v>3.990684032440186</v>
+        <v>4.049041748046875</v>
       </c>
       <c r="F149">
-        <v>129547</v>
+        <v>15976</v>
       </c>
       <c r="G149">
-        <v>3.996297032275253</v>
+        <v>4.053775279071936</v>
       </c>
       <c r="H149">
-        <v>3.992841958999634</v>
+        <v>4.062716031074524</v>
       </c>
       <c r="I149">
-        <v>3.993867492675781</v>
+        <v>4.049992450078329</v>
       </c>
       <c r="L149">
-        <v>47.10959823229319</v>
+        <v>47.34082571446685</v>
       </c>
       <c r="M149">
-        <v>47.53185006518611</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13">
+        <v>49.74298223613382</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14">
       <c r="A150" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B150">
-        <v>4.007719039916992</v>
+        <v>4.048924922943115</v>
       </c>
       <c r="C150">
-        <v>4.012997150421143</v>
+        <v>4.054789543151856</v>
       </c>
       <c r="D150">
-        <v>3.989027500152588</v>
+        <v>4.020723819732666</v>
       </c>
       <c r="E150">
-        <v>3.992042303085327</v>
+        <v>4.038733959197998</v>
       </c>
       <c r="F150">
-        <v>1028</v>
+        <v>316947</v>
       </c>
       <c r="G150">
-        <v>3.995910238712533</v>
+        <v>4.052407886356123</v>
       </c>
       <c r="H150">
-        <v>3.992282426357269</v>
+        <v>4.060497713088989</v>
       </c>
       <c r="I150">
-        <v>3.993501925468445</v>
+        <v>4.051729242006938</v>
       </c>
       <c r="L150">
-        <v>47.89797703842722</v>
+        <v>43.78909473704661</v>
       </c>
       <c r="M150">
-        <v>48.03052966659926</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13">
+        <v>47.23534177633066</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14">
       <c r="A151" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B151">
-        <v>3.99196982383728</v>
+        <v>4.03775691986084</v>
       </c>
       <c r="C151">
-        <v>4.013328552246094</v>
+        <v>4.086904048919678</v>
       </c>
       <c r="D151">
-        <v>3.990299463272095</v>
+        <v>4.034276962280273</v>
       </c>
       <c r="E151">
-        <v>3.990987539291382</v>
+        <v>4.080420017242432</v>
       </c>
       <c r="F151">
-        <v>5764</v>
+        <v>551654</v>
       </c>
       <c r="G151">
-        <v>3.995462720583337</v>
+        <v>4.054954443709423</v>
       </c>
       <c r="H151">
-        <v>3.991889035701752</v>
+        <v>4.060328245162964</v>
       </c>
       <c r="I151">
-        <v>3.99309500058492</v>
+        <v>4.054615163803101</v>
       </c>
       <c r="J151">
-        <v>4.004432222048441</v>
+        <v>4.025347933769226</v>
       </c>
       <c r="L151">
-        <v>47.28226482694394</v>
+        <v>58.09334424351009</v>
       </c>
       <c r="M151">
-        <v>47.65177454574597</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13">
+        <v>56.73450096060074</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14">
       <c r="A152" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B152">
-        <v>4.012753009796143</v>
+        <v>4.078763484954834</v>
       </c>
       <c r="C152">
-        <v>4.01393985748291</v>
+        <v>4.084707260131836</v>
       </c>
       <c r="D152">
-        <v>3.988073825836182</v>
+        <v>4.042810916900635</v>
       </c>
       <c r="E152">
-        <v>4.011094093322754</v>
+        <v>4.046731948852539</v>
       </c>
       <c r="F152">
-        <v>2338</v>
+        <v>599687</v>
       </c>
       <c r="G152">
-        <v>3.996883754468739</v>
+        <v>4.054206944176979</v>
       </c>
       <c r="H152">
-        <v>3.992203509807587</v>
+        <v>4.061027383804321</v>
       </c>
       <c r="I152">
-        <v>3.99350909392039</v>
+        <v>4.056157890955607</v>
       </c>
       <c r="J152">
-        <v>4.004520458754062</v>
+        <v>4.025631165757085</v>
       </c>
       <c r="L152">
-        <v>58.67459715697651</v>
+        <v>47.17831861191178</v>
       </c>
       <c r="M152">
-        <v>54.94545685162966</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13">
+        <v>49.04945931880945</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14">
       <c r="A153" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B153">
-        <v>3.989704132080078</v>
+        <v>4.047548770904541</v>
       </c>
       <c r="C153">
-        <v>4.011894702911377</v>
+        <v>4.049160957336426</v>
       </c>
       <c r="D153">
-        <v>3.987470626831055</v>
+        <v>4.010701179504395</v>
       </c>
       <c r="E153">
-        <v>3.990580320358277</v>
+        <v>4.016372680664063</v>
       </c>
       <c r="F153">
-        <v>10894</v>
+        <v>48997</v>
       </c>
       <c r="G153">
-        <v>3.996310715004151</v>
+        <v>4.050767465675805</v>
       </c>
       <c r="H153">
-        <v>3.991492033004761</v>
+        <v>4.060775232315064</v>
       </c>
       <c r="I153">
-        <v>3.993880327542623</v>
+        <v>4.055926418304443</v>
       </c>
       <c r="J153">
-        <v>4.004335821159415</v>
+        <v>4.025508536815456</v>
       </c>
       <c r="L153">
-        <v>47.01351089489007</v>
+        <v>39.62941683776221</v>
       </c>
       <c r="M153">
-        <v>47.65075935148162</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13">
+        <v>43.3505300144911</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14">
       <c r="A154" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B154">
-        <v>3.99101710319519</v>
+        <v>4.013155937194824</v>
       </c>
       <c r="C154">
-        <v>4.010738372802734</v>
+        <v>4.059807777404785</v>
       </c>
       <c r="D154">
-        <v>3.987030267715454</v>
+        <v>4.012779235839844</v>
       </c>
       <c r="E154">
-        <v>3.989410400390625</v>
+        <v>4.049699783325195</v>
       </c>
       <c r="F154">
-        <v>1019</v>
+        <v>337348</v>
       </c>
       <c r="G154">
-        <v>3.995683413675649</v>
+        <v>4.050670403643931</v>
       </c>
       <c r="H154">
-        <v>3.990694832801819</v>
+        <v>4.060299873352051</v>
       </c>
       <c r="I154">
-        <v>3.993652137120565</v>
+        <v>4.057428805033366</v>
       </c>
       <c r="J154">
-        <v>4.004138133467114</v>
+        <v>4.025828950676512</v>
       </c>
       <c r="L154">
-        <v>46.42157874470423</v>
+        <v>49.59061342413928</v>
       </c>
       <c r="M154">
-        <v>47.26535755207472</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13">
+        <v>50.19199538039197</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14">
       <c r="A155" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B155">
-        <v>3.988872051239014</v>
+        <v>4.052657604217529</v>
       </c>
       <c r="C155">
-        <v>4.004944801330566</v>
+        <v>4.068545341491699</v>
       </c>
       <c r="D155">
-        <v>3.98154330253601</v>
+        <v>4.050439834594727</v>
       </c>
       <c r="E155">
-        <v>4.001121044158936</v>
+        <v>4.062925815582275</v>
       </c>
       <c r="F155">
-        <v>15917</v>
+        <v>579</v>
       </c>
       <c r="G155">
-        <v>3.996177743719584</v>
+        <v>4.051784532001962</v>
       </c>
       <c r="H155">
-        <v>3.992045295238495</v>
+        <v>4.059698677062988</v>
       </c>
       <c r="I155">
-        <v>3.993828773498535</v>
+        <v>4.058729251225789</v>
       </c>
       <c r="J155">
-        <v>4.004098172019324</v>
+        <v>4.026320299880562</v>
       </c>
       <c r="L155">
-        <v>53.07480736984539</v>
+        <v>53.04931145369797</v>
       </c>
       <c r="M155">
-        <v>51.49442731017992</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13">
+        <v>52.63662262119376</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14">
       <c r="A156" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B156">
-        <v>3.983399868011475</v>
+        <v>4.058865547180176</v>
       </c>
       <c r="C156">
-        <v>4.010992527008057</v>
+        <v>4.061131477355957</v>
       </c>
       <c r="D156">
-        <v>3.976898670196533</v>
+        <v>3.971851587295532</v>
       </c>
       <c r="E156">
-        <v>3.987464189529419</v>
+        <v>3.996472358703613</v>
       </c>
       <c r="F156">
-        <v>7183</v>
+        <v>600282</v>
       </c>
       <c r="G156">
-        <v>3.995385602429569</v>
+        <v>4.046756152611203</v>
       </c>
       <c r="H156">
-        <v>3.992734587192535</v>
+        <v>4.05579903125763</v>
       </c>
       <c r="I156">
-        <v>3.993486563364665</v>
+        <v>4.057663424809774</v>
       </c>
       <c r="J156">
-        <v>4.003877854370452</v>
+        <v>4.025924962911331</v>
       </c>
       <c r="L156">
-        <v>45.63939804957685</v>
+        <v>38.22463795654561</v>
       </c>
       <c r="M156">
-        <v>46.78261545097357</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13">
+        <v>41.59109348891853</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14">
       <c r="A157" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B157">
-        <v>3.988217830657959</v>
+        <v>3.995625495910645</v>
       </c>
       <c r="C157">
-        <v>3.993510484695435</v>
+        <v>4.014820098876953</v>
       </c>
       <c r="D157">
-        <v>3.985239982604981</v>
+        <v>3.945397853851318</v>
       </c>
       <c r="E157">
-        <v>3.989265918731689</v>
+        <v>3.989521265029907</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>284271</v>
       </c>
       <c r="G157">
-        <v>3.994829267547943</v>
+        <v>4.041552981012903</v>
       </c>
       <c r="H157">
-        <v>3.994308388233185</v>
+        <v>4.051494061946869</v>
       </c>
       <c r="I157">
-        <v>3.993348280588786</v>
+        <v>4.055222121874491</v>
       </c>
       <c r="J157">
-        <v>4.003684318799078</v>
+        <v>4.025442794727471</v>
       </c>
       <c r="L157">
-        <v>46.74667069901151</v>
+        <v>37.00765352874776</v>
       </c>
       <c r="M157">
-        <v>47.46557534821167</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13">
+        <v>40.63064846543242</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14">
       <c r="A158" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B158">
-        <v>3.991008758544922</v>
+        <v>3.995869398117065</v>
       </c>
       <c r="C158">
-        <v>3.99622654914856</v>
+        <v>4.001049995422363</v>
       </c>
       <c r="D158">
-        <v>3.987787246704102</v>
+        <v>3.930279970169067</v>
       </c>
       <c r="E158">
-        <v>3.990687608718872</v>
+        <v>3.936093807220459</v>
       </c>
       <c r="F158">
-        <v>6139</v>
+        <v>1095515</v>
       </c>
       <c r="G158">
-        <v>3.994452753108936</v>
+        <v>4.031965783395409</v>
       </c>
       <c r="H158">
-        <v>3.995501053333283</v>
+        <v>4.044448888301849</v>
       </c>
       <c r="I158">
-        <v>3.9931476354599</v>
+        <v>4.051068409283956</v>
       </c>
       <c r="J158">
-        <v>4.003512176943711</v>
+        <v>4.024259364429366</v>
       </c>
       <c r="L158">
-        <v>47.69247737808457</v>
+        <v>29.0187924646729</v>
       </c>
       <c r="M158">
-        <v>48.03230405166254</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13">
+        <v>34.11051481304051</v>
+      </c>
+      <c r="N158" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14">
       <c r="A159" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B159">
-        <v>3.990055084228516</v>
+        <v>3.936160564422608</v>
       </c>
       <c r="C159">
-        <v>4.021055221557617</v>
+        <v>3.987135410308838</v>
       </c>
       <c r="D159">
-        <v>3.98678994178772</v>
+        <v>3.92964506149292</v>
       </c>
       <c r="E159">
-        <v>3.98678994178772</v>
+        <v>3.986110925674439</v>
       </c>
       <c r="F159">
-        <v>11198</v>
+        <v>0</v>
       </c>
       <c r="G159">
-        <v>3.993756133897917</v>
+        <v>4.027797159966229</v>
       </c>
       <c r="H159">
-        <v>3.995798337459564</v>
+        <v>4.039553546905518</v>
       </c>
       <c r="I159">
-        <v>3.992876084645589</v>
+        <v>4.048580106099447</v>
       </c>
       <c r="J159">
-        <v>4.003290690385354</v>
+        <v>4.023754087094863</v>
       </c>
       <c r="L159">
-        <v>45.21564462917697</v>
+        <v>42.16722619382598</v>
       </c>
       <c r="M159">
-        <v>46.54967539907685</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13">
+        <v>43.28605139369442</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14">
       <c r="A160" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B160">
-        <v>3.988456010818481</v>
+        <v>3.983883857727051</v>
       </c>
       <c r="C160">
-        <v>4.023179531097412</v>
+        <v>3.998177051544189</v>
       </c>
       <c r="D160">
-        <v>3.988418579101562</v>
+        <v>3.983483552932739</v>
       </c>
       <c r="E160">
-        <v>3.992858171463013</v>
+        <v>3.99604868888855</v>
       </c>
       <c r="F160">
-        <v>404</v>
+        <v>1628433</v>
       </c>
       <c r="G160">
-        <v>3.993674500949289</v>
+        <v>4.024910935322803</v>
       </c>
       <c r="H160">
-        <v>3.996812355518341</v>
+        <v>4.036538517475128</v>
       </c>
       <c r="I160">
-        <v>3.992530258496602</v>
+        <v>4.045678385098776</v>
       </c>
       <c r="J160">
-        <v>4.00315251132678</v>
+        <v>4.023387128178223</v>
       </c>
       <c r="L160">
-        <v>49.78341036102847</v>
+        <v>44.46658892552054</v>
       </c>
       <c r="M160">
-        <v>49.17980566824789</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15">
+        <v>44.92705053143628</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14">
       <c r="A161" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B161">
-        <v>3.990027904510498</v>
+        <v>3.996742963790894</v>
       </c>
       <c r="C161">
-        <v>4.025420188903809</v>
+        <v>3.997502326965332</v>
       </c>
       <c r="D161">
-        <v>3.978704929351807</v>
+        <v>3.983815670013428</v>
       </c>
       <c r="E161">
-        <v>3.986630201339722</v>
+        <v>3.983849048614502</v>
       </c>
       <c r="F161">
-        <v>4503</v>
+        <v>147758</v>
       </c>
       <c r="G161">
-        <v>3.993034110075692</v>
+        <v>4.02117803653114</v>
       </c>
       <c r="H161">
-        <v>3.996194124221802</v>
+        <v>4.033552753925323</v>
       </c>
       <c r="I161">
-        <v>3.992122753461202</v>
+        <v>4.042346374193827</v>
       </c>
       <c r="J161">
-        <v>4.002933672783906</v>
+        <v>4.022863445005194</v>
       </c>
       <c r="L161">
-        <v>45.41169377025411</v>
+        <v>42.15205717504355</v>
       </c>
       <c r="M161">
-        <v>46.64302557931441</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15">
+        <v>43.27178988131571</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14">
       <c r="A162" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B162">
-        <v>3.985568046569824</v>
+        <v>3.983750581741333</v>
       </c>
       <c r="C162">
-        <v>4.025047779083252</v>
+        <v>3.995447874069214</v>
       </c>
       <c r="D162">
-        <v>3.97789192199707</v>
+        <v>3.949875593185425</v>
       </c>
       <c r="E162">
-        <v>3.993842363357544</v>
+        <v>3.968523025512695</v>
       </c>
       <c r="F162">
-        <v>185953</v>
+        <v>812712</v>
       </c>
       <c r="G162">
-        <v>3.993107587646769</v>
+        <v>4.016391217347644</v>
       </c>
       <c r="H162">
-        <v>3.994925916194916</v>
+        <v>4.028107249736786</v>
       </c>
       <c r="I162">
-        <v>3.991757345199585</v>
+        <v>4.040205502510071</v>
       </c>
       <c r="J162">
-        <v>4.002813258089517</v>
+        <v>4.022143704349665</v>
       </c>
       <c r="L162">
-        <v>51.01566675387238</v>
+        <v>39.26367134154178</v>
       </c>
       <c r="M162">
-        <v>49.8679191093342</v>
-      </c>
-    </row>
-    <row r="163" spans="1:15">
+        <v>41.21729481935311</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14">
       <c r="A163" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B163">
-        <v>3.995966911315918</v>
+        <v>3.971118688583374</v>
       </c>
       <c r="C163">
-        <v>4.029212951660156</v>
+        <v>3.976739645004273</v>
       </c>
       <c r="D163">
-        <v>3.988364219665527</v>
+        <v>3.968837499618529</v>
       </c>
       <c r="E163">
-        <v>4.000450134277344</v>
+        <v>3.975620031356812</v>
       </c>
       <c r="F163">
-        <v>328514</v>
+        <v>8763</v>
       </c>
       <c r="G163">
-        <v>3.993775091885913</v>
+        <v>4.012684745893933</v>
       </c>
       <c r="H163">
-        <v>3.995624053478241</v>
+        <v>4.023076295852661</v>
       </c>
       <c r="I163">
-        <v>3.991612021128337</v>
+        <v>4.038678979873657</v>
       </c>
       <c r="J163">
-        <v>4.002781958436375</v>
+        <v>4.021527496760355</v>
       </c>
       <c r="L163">
-        <v>55.70287237793907</v>
+        <v>41.35706236989319</v>
       </c>
       <c r="M163">
-        <v>52.6892756386384</v>
-      </c>
-    </row>
-    <row r="164" spans="1:15">
+        <v>42.57691356642874</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14">
       <c r="A164" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B164">
-        <v>4.005501270294189</v>
+        <v>3.975865840911865</v>
       </c>
       <c r="C164">
-        <v>4.03058385848999</v>
+        <v>3.990421533584594</v>
       </c>
       <c r="D164">
-        <v>3.998667478561402</v>
+        <v>3.769023180007935</v>
       </c>
       <c r="E164">
-        <v>4.023316860198975</v>
+        <v>3.858404159545898</v>
       </c>
       <c r="F164">
-        <v>1332</v>
+        <v>1789736</v>
       </c>
       <c r="G164">
-        <v>3.9964607071871</v>
+        <v>3.998659238044111</v>
       </c>
       <c r="H164">
-        <v>3.996110689640045</v>
+        <v>4.01240496635437</v>
       </c>
       <c r="I164">
-        <v>3.99221076965332</v>
+        <v>4.031985553105672</v>
       </c>
       <c r="J164">
-        <v>4.003053943890185</v>
+        <v>4.019366922757516</v>
       </c>
       <c r="L164">
-        <v>67.72587238830683</v>
+        <v>25.21124815405412</v>
       </c>
       <c r="M164">
-        <v>60.89174112318931</v>
-      </c>
-    </row>
-    <row r="165" spans="1:15">
+        <v>30.16645567683388</v>
+      </c>
+      <c r="N164" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14">
       <c r="A165" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B165">
-        <v>4.001658916473389</v>
+        <v>3.860143423080444</v>
       </c>
       <c r="C165">
-        <v>4.029964923858643</v>
+        <v>3.889237880706787</v>
       </c>
       <c r="D165">
-        <v>3.999605178833008</v>
+        <v>3.858466386795044</v>
       </c>
       <c r="E165">
-        <v>4.00462818145752</v>
+        <v>3.868181943893433</v>
       </c>
       <c r="F165">
-        <v>2114</v>
+        <v>1372</v>
       </c>
       <c r="G165">
-        <v>3.997203204848047</v>
+        <v>3.986797665848595</v>
       </c>
       <c r="H165">
-        <v>3.996339118480682</v>
+        <v>4.00196007490158</v>
       </c>
       <c r="I165">
-        <v>3.993227982521057</v>
+        <v>4.025093293190002</v>
       </c>
       <c r="J165">
-        <v>4.003074794718891</v>
+        <v>4.017364472706336</v>
       </c>
       <c r="L165">
-        <v>54.20003945630792</v>
+        <v>27.85442676607016</v>
       </c>
       <c r="M165">
-        <v>52.83006647758036</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15">
+        <v>31.94838622749144</v>
+      </c>
+      <c r="N165" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14">
       <c r="A166" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B166">
-        <v>4.005963325500488</v>
+        <v>3.868558645248413</v>
       </c>
       <c r="C166">
-        <v>4.030002593994141</v>
+        <v>3.972388505935669</v>
       </c>
       <c r="D166">
-        <v>4.00046968460083</v>
+        <v>3.866165161132813</v>
       </c>
       <c r="E166">
-        <v>4.02391242980957</v>
+        <v>3.971282720565796</v>
       </c>
       <c r="F166">
-        <v>15368</v>
+        <v>29827</v>
       </c>
       <c r="G166">
-        <v>3.999631316208185</v>
+        <v>3.985387216277431</v>
       </c>
       <c r="H166">
-        <v>3.997526252269745</v>
+        <v>3.997118377685547</v>
       </c>
       <c r="I166">
-        <v>3.994902451833089</v>
+        <v>4.021653874715169</v>
       </c>
       <c r="J166">
-        <v>4.003350789885656</v>
+        <v>4.016754118373349</v>
       </c>
       <c r="L166">
-        <v>62.81984142351274</v>
+        <v>49.16610389274692</v>
       </c>
       <c r="M166">
-        <v>58.87973501071095</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15">
+        <v>47.23684240237831</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14">
       <c r="A167" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B167">
-        <v>4.03028678894043</v>
+        <v>3.971574544906616</v>
       </c>
       <c r="C167">
-        <v>4.03028678894043</v>
+        <v>3.97420597076416</v>
       </c>
       <c r="D167">
-        <v>4.004968166351318</v>
+        <v>3.964970111846924</v>
       </c>
       <c r="E167">
-        <v>4.028447151184082</v>
+        <v>3.972782850265503</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>22092</v>
       </c>
       <c r="G167">
-        <v>4.002250937569631</v>
+        <v>3.984241364821801</v>
       </c>
       <c r="H167">
-        <v>3.998777210712433</v>
+        <v>3.994839322566986</v>
       </c>
       <c r="I167">
-        <v>3.997257693608602</v>
+        <v>4.018225948015849</v>
       </c>
       <c r="J167">
-        <v>4.003683192022059</v>
+        <v>4.016171717471258</v>
       </c>
       <c r="L167">
-        <v>64.58320496458904</v>
+        <v>49.41072043844669</v>
       </c>
       <c r="M167">
-        <v>60.17325661592114</v>
-      </c>
-    </row>
-    <row r="168" spans="1:15">
+        <v>47.4219317334876</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14">
       <c r="A168" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B168">
-        <v>4.027993679046631</v>
+        <v>3.974453449249268</v>
       </c>
       <c r="C168">
-        <v>4.065235137939453</v>
+        <v>3.990897417068481</v>
       </c>
       <c r="D168">
-        <v>4.023128986358643</v>
+        <v>3.972899198532105</v>
       </c>
       <c r="E168">
-        <v>4.062760353088379</v>
+        <v>3.982067346572876</v>
       </c>
       <c r="F168">
-        <v>267549</v>
+        <v>595378</v>
       </c>
       <c r="G168">
-        <v>4.00775179352588</v>
+        <v>3.984043726799171</v>
       </c>
       <c r="H168">
-        <v>4.001848661899567</v>
+        <v>3.991444206237793</v>
       </c>
       <c r="I168">
-        <v>4.000455228487651</v>
+        <v>4.015061616897583</v>
       </c>
       <c r="J168">
-        <v>4.00446567097658</v>
+        <v>4.015720003949426</v>
       </c>
       <c r="L168">
-        <v>74.76955657388983</v>
+        <v>51.05078236889486</v>
       </c>
       <c r="M168">
-        <v>68.2993419832528</v>
-      </c>
-      <c r="O168" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="169" spans="1:15">
+        <v>48.62317804260059</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14">
       <c r="A169" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B169">
-        <v>4.06165075302124</v>
+        <v>3.984333992004395</v>
       </c>
       <c r="C169">
-        <v>4.068128108978272</v>
+        <v>3.984416961669922</v>
       </c>
       <c r="D169">
-        <v>4.059651374816895</v>
+        <v>3.918398857116699</v>
       </c>
       <c r="E169">
-        <v>4.060705184936523</v>
+        <v>3.966517925262451</v>
       </c>
       <c r="F169">
-        <v>223</v>
+        <v>231741</v>
       </c>
       <c r="G169">
-        <v>4.012565738199576</v>
+        <v>3.982450472114014</v>
       </c>
       <c r="H169">
-        <v>4.005349719524384</v>
+        <v>3.987318015098572</v>
       </c>
       <c r="I169">
-        <v>4.003117259343465</v>
+        <v>4.011144955952962</v>
       </c>
       <c r="J169">
-        <v>4.005210565201215</v>
+        <v>4.015068320788009</v>
       </c>
       <c r="L169">
-        <v>73.34808935669885</v>
+        <v>48.11202459256896</v>
       </c>
       <c r="M169">
-        <v>67.41215412707948</v>
-      </c>
-      <c r="O169" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15">
+        <v>46.69887092092146</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14">
       <c r="A170" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B170">
-        <v>4.060810089111328</v>
+        <v>3.969849586486816</v>
       </c>
       <c r="C170">
-        <v>4.062478542327881</v>
+        <v>3.976136684417725</v>
       </c>
       <c r="D170">
-        <v>4.038110256195068</v>
+        <v>3.941962480545044</v>
       </c>
       <c r="E170">
-        <v>4.060760021209717</v>
+        <v>3.968050479888916</v>
       </c>
       <c r="F170">
-        <v>264</v>
+        <v>255589</v>
       </c>
       <c r="G170">
-        <v>4.016947036655043</v>
+        <v>3.981141381911733</v>
       </c>
       <c r="H170">
-        <v>4.008785605430603</v>
+        <v>3.983783841133118</v>
       </c>
       <c r="I170">
-        <v>4.006056666374207</v>
+        <v>4.008201662699381</v>
       </c>
       <c r="J170">
-        <v>4.005946319585433</v>
+        <v>4.014445567928418</v>
       </c>
       <c r="L170">
-        <v>73.36329013118797</v>
+        <v>48.44111796490713</v>
       </c>
       <c r="M170">
-        <v>67.42431312836297</v>
-      </c>
-      <c r="O170" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="171" spans="1:15">
+        <v>46.92183421317883</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14">
       <c r="A171" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B171">
-        <v>4.060880661010742</v>
+        <v>3.96522068977356</v>
       </c>
       <c r="C171">
-        <v>4.083198547363281</v>
+        <v>3.96522068977356</v>
       </c>
       <c r="D171">
-        <v>4.055546760559082</v>
+        <v>3.946385145187378</v>
       </c>
       <c r="E171">
-        <v>4.083100318908691</v>
+        <v>3.957642555236816</v>
       </c>
       <c r="F171">
-        <v>15869</v>
+        <v>858997</v>
       </c>
       <c r="G171">
-        <v>4.022960971405374</v>
+        <v>3.979005124941285</v>
       </c>
       <c r="H171">
-        <v>4.013391244411468</v>
+        <v>3.977644968032837</v>
       </c>
       <c r="I171">
-        <v>4.008860182762146</v>
+        <v>4.005337603886923</v>
       </c>
       <c r="J171">
-        <v>4.006968226861238</v>
+        <v>4.013693210144424</v>
       </c>
       <c r="L171">
-        <v>78.88327088508417</v>
+        <v>46.20231021898776</v>
       </c>
       <c r="M171">
-        <v>72.00679343821902</v>
-      </c>
-      <c r="O171" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15">
+        <v>45.52894241422973</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14">
       <c r="A172" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B172">
-        <v>4.08251953125</v>
+        <v>3.957125425338745</v>
       </c>
       <c r="C172">
-        <v>4.083898067474365</v>
+        <v>3.960662841796875</v>
       </c>
       <c r="D172">
-        <v>4.079066276550293</v>
+        <v>3.955736637115479</v>
       </c>
       <c r="E172">
-        <v>4.08380937576294</v>
+        <v>3.958264350891113</v>
       </c>
       <c r="F172">
-        <v>14127</v>
+        <v>536</v>
       </c>
       <c r="G172">
-        <v>4.028492644528789</v>
+        <v>3.977119600027633</v>
       </c>
       <c r="H172">
-        <v>4.017027008533478</v>
+        <v>3.973221588134765</v>
       </c>
       <c r="I172">
-        <v>4.011013611157735</v>
+        <v>4.001365311940511</v>
       </c>
       <c r="J172">
-        <v>4.00798599042285</v>
+        <v>4.012959053068221</v>
       </c>
       <c r="L172">
-        <v>79.03837614742849</v>
+        <v>46.36890269822113</v>
       </c>
       <c r="M172">
-        <v>72.140746697388</v>
-      </c>
-      <c r="O172" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15">
+        <v>45.63277837040313</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14">
       <c r="A173" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B173">
-        <v>4.08217191696167</v>
+        <v>3.956540822982788</v>
       </c>
       <c r="C173">
-        <v>4.084254741668701</v>
+        <v>3.961363792419434</v>
       </c>
       <c r="D173">
-        <v>4.026715755462647</v>
+        <v>3.937642812728882</v>
       </c>
       <c r="E173">
-        <v>4.032749176025391</v>
+        <v>3.960370302200317</v>
       </c>
       <c r="F173">
-        <v>808460</v>
+        <v>0</v>
       </c>
       <c r="G173">
-        <v>4.028879601937572</v>
+        <v>3.975596936588786</v>
       </c>
       <c r="H173">
-        <v>4.019135451316833</v>
+        <v>3.970421469211578</v>
       </c>
       <c r="I173">
-        <v>4.01255567073822</v>
+        <v>3.997503018379212</v>
       </c>
       <c r="J173">
-        <v>4.008313979636129</v>
+        <v>4.012262513321627</v>
       </c>
       <c r="L173">
-        <v>49.55227060559836</v>
+        <v>46.99431637031142</v>
       </c>
       <c r="M173">
-        <v>52.61537077095526</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15">
+        <v>46.00817922700094</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14">
       <c r="A174" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B174">
-        <v>4.032071113586426</v>
+        <v>3.959566831588745</v>
       </c>
       <c r="C174">
-        <v>4.060013294219971</v>
+        <v>3.994305372238159</v>
       </c>
       <c r="D174">
-        <v>4.021415710449219</v>
+        <v>3.931271314620972</v>
       </c>
       <c r="E174">
-        <v>4.021415710449219</v>
+        <v>3.931271314620972</v>
       </c>
       <c r="F174">
-        <v>9984</v>
+        <v>534883</v>
       </c>
       <c r="G174">
-        <v>4.028201066347721</v>
+        <v>3.971567334591712</v>
       </c>
       <c r="H174">
-        <v>4.020735716819763</v>
+        <v>3.964500045776367</v>
       </c>
       <c r="I174">
-        <v>4.012816723187765</v>
+        <v>3.992817703882853</v>
       </c>
       <c r="J174">
-        <v>4.008487512494581</v>
+        <v>4.011189782213009</v>
       </c>
       <c r="L174">
-        <v>45.32953923887631</v>
+        <v>39.78277867860353</v>
       </c>
       <c r="M174">
-        <v>49.41816706204983</v>
-      </c>
-    </row>
-    <row r="175" spans="1:15">
+        <v>41.72139899661239</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14">
       <c r="A175" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B175">
-        <v>4.026118278503418</v>
+        <v>3.930946826934815</v>
       </c>
       <c r="C175">
-        <v>4.066420555114746</v>
+        <v>3.986397504806519</v>
       </c>
       <c r="D175">
-        <v>4.015278339385986</v>
+        <v>3.930946826934815</v>
       </c>
       <c r="E175">
-        <v>4.059206962585449</v>
+        <v>3.984453201293945</v>
       </c>
       <c r="F175">
-        <v>628837</v>
+        <v>408127</v>
       </c>
       <c r="G175">
-        <v>4.031019784187515</v>
+        <v>3.972738777019188</v>
       </c>
       <c r="H175">
-        <v>4.023640012741089</v>
+        <v>3.960576415061951</v>
       </c>
       <c r="I175">
-        <v>4.014788301785787</v>
+        <v>3.989730151494344</v>
       </c>
       <c r="J175">
-        <v>4.009159293290486</v>
+        <v>4.010835655313419</v>
       </c>
       <c r="L175">
-        <v>58.57283741716296</v>
+        <v>54.22538631169428</v>
       </c>
       <c r="M175">
-        <v>58.47849632828685</v>
-      </c>
-    </row>
-    <row r="176" spans="1:15">
+        <v>50.75267935737273</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14">
       <c r="A176" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B176">
-        <v>4.061100482940674</v>
+        <v>3.977941751480103</v>
       </c>
       <c r="C176">
-        <v>4.079490184783936</v>
+        <v>3.992020130157471</v>
       </c>
       <c r="D176">
-        <v>4.034755706787109</v>
+        <v>3.977941751480103</v>
       </c>
       <c r="E176">
-        <v>4.074949741363525</v>
+        <v>3.98930811882019</v>
       </c>
       <c r="F176">
-        <v>1322614</v>
+        <v>13934</v>
       </c>
       <c r="G176">
-        <v>4.035013416658061</v>
+        <v>3.974245080819279</v>
       </c>
       <c r="H176">
-        <v>4.028014290332794</v>
+        <v>3.96021820306778</v>
       </c>
       <c r="I176">
-        <v>4.017280968030294</v>
+        <v>3.987103199958801</v>
       </c>
       <c r="J176">
-        <v>4.010030689953706</v>
+        <v>4.010550522379734</v>
       </c>
       <c r="L176">
-        <v>62.79633091270558</v>
+        <v>55.32579095006584</v>
       </c>
       <c r="M176">
-        <v>61.56687082879308</v>
+        <v>51.49170417642884</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -7004,37 +6998,37 @@
         <v>189</v>
       </c>
       <c r="B177">
-        <v>4.076120376586914</v>
+        <v>3.985295295715332</v>
       </c>
       <c r="C177">
-        <v>4.080578804016113</v>
+        <v>3.994421720504761</v>
       </c>
       <c r="D177">
-        <v>4.073337554931641</v>
+        <v>3.985295295715332</v>
       </c>
       <c r="E177">
-        <v>4.074465274810791</v>
+        <v>3.989824533462525</v>
       </c>
       <c r="F177">
-        <v>3210</v>
+        <v>6626</v>
       </c>
       <c r="G177">
-        <v>4.0385999492174</v>
+        <v>3.975661394695937</v>
       </c>
       <c r="H177">
-        <v>4.032274258136749</v>
+        <v>3.96023336648941</v>
       </c>
       <c r="I177">
-        <v>4.019648877779643</v>
+        <v>3.986151885986328</v>
       </c>
       <c r="J177">
-        <v>4.010884128163734</v>
+        <v>4.010276005970234</v>
       </c>
       <c r="L177">
-        <v>62.57546654009608</v>
+        <v>55.45393730635462</v>
       </c>
       <c r="M177">
-        <v>61.41547921452033</v>
+        <v>51.57494720909882</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -7042,37 +7036,37 @@
         <v>190</v>
       </c>
       <c r="B178">
-        <v>4.074563980102539</v>
+        <v>3.990773439407349</v>
       </c>
       <c r="C178">
-        <v>4.079606533050537</v>
+        <v>4.014522552490234</v>
       </c>
       <c r="D178">
-        <v>4.074563980102539</v>
+        <v>3.988099813461304</v>
       </c>
       <c r="E178">
-        <v>4.075620651245117</v>
+        <v>4.011783599853516</v>
       </c>
       <c r="F178">
-        <v>3256</v>
+        <v>47449</v>
       </c>
       <c r="G178">
-        <v>4.041965467583556</v>
+        <v>3.978945231528444</v>
       </c>
       <c r="H178">
-        <v>4.036520910263062</v>
+        <v>3.964017856121063</v>
       </c>
       <c r="I178">
-        <v>4.022125188509623</v>
+        <v>3.984879016876221</v>
       </c>
       <c r="J178">
-        <v>4.01174156555554</v>
+        <v>4.010295974101139</v>
       </c>
       <c r="L178">
-        <v>62.92531590066312</v>
+        <v>60.82898216322535</v>
       </c>
       <c r="M178">
-        <v>61.65762567834898</v>
+        <v>55.10310643705982</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -7080,37 +7074,37 @@
         <v>191</v>
       </c>
       <c r="B179">
-        <v>4.075719356536865</v>
+        <v>4.01293420791626</v>
       </c>
       <c r="C179">
-        <v>4.080492973327637</v>
+        <v>4.015495777130127</v>
       </c>
       <c r="D179">
-        <v>4.074957847595215</v>
+        <v>4.006013870239258</v>
       </c>
       <c r="E179">
-        <v>4.07699728012085</v>
+        <v>4.012409210205078</v>
       </c>
       <c r="F179">
-        <v>4411</v>
+        <v>0</v>
       </c>
       <c r="G179">
-        <v>4.045150177814219</v>
+        <v>3.981987411408138</v>
       </c>
       <c r="H179">
-        <v>4.041031277179718</v>
+        <v>3.965332770347595</v>
       </c>
       <c r="I179">
-        <v>4.025002296765646</v>
+        <v>3.983657932281494</v>
       </c>
       <c r="J179">
-        <v>4.012605879655743</v>
+        <v>4.010323963983311</v>
       </c>
       <c r="L179">
-        <v>63.3841333219676</v>
+        <v>60.97988724527668</v>
       </c>
       <c r="M179">
-        <v>61.96391991619689</v>
+        <v>55.20324454278756</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -7118,37 +7112,37 @@
         <v>192</v>
       </c>
       <c r="B180">
-        <v>4.077964305877686</v>
+        <v>4.013651371002197</v>
       </c>
       <c r="C180">
-        <v>4.084244251251221</v>
+        <v>4.016293525695801</v>
       </c>
       <c r="D180">
-        <v>4.077530384063721</v>
+        <v>4.005776405334473</v>
       </c>
       <c r="E180">
-        <v>4.084017753601074</v>
+        <v>4.013747215270996</v>
       </c>
       <c r="F180">
-        <v>3008</v>
+        <v>3801</v>
       </c>
       <c r="G180">
-        <v>4.048683593794842</v>
+        <v>3.984874666304762</v>
       </c>
       <c r="H180">
-        <v>4.045589256286621</v>
+        <v>3.966217696666718</v>
       </c>
       <c r="I180">
-        <v>4.02806814511617</v>
+        <v>3.982825040817261</v>
       </c>
       <c r="J180">
-        <v>4.013551732290781</v>
+        <v>4.010369305059969</v>
       </c>
       <c r="L180">
-        <v>65.81154776249447</v>
+        <v>61.3382532745898</v>
       </c>
       <c r="M180">
-        <v>63.56252894922644</v>
+        <v>55.43219569436548</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -7156,37 +7150,37 @@
         <v>193</v>
       </c>
       <c r="B181">
-        <v>4.084391593933105</v>
+        <v>4.015154838562012</v>
       </c>
       <c r="C181">
-        <v>4.084846496582031</v>
+        <v>4.025138378143311</v>
       </c>
       <c r="D181">
-        <v>4.050076484680176</v>
+        <v>4.010226249694824</v>
       </c>
       <c r="E181">
-        <v>4.056349277496338</v>
+        <v>4.010798454284668</v>
       </c>
       <c r="F181">
-        <v>250709</v>
+        <v>201895</v>
       </c>
       <c r="G181">
-        <v>4.049380474131342</v>
+        <v>3.987231374302935</v>
       </c>
       <c r="H181">
-        <v>4.049075210094452</v>
+        <v>3.967565166950226</v>
       </c>
       <c r="I181">
-        <v>4.030246869723002</v>
+        <v>3.980504322052002</v>
       </c>
       <c r="J181">
-        <v>4.014118587194165</v>
+        <v>4.010374989155661</v>
       </c>
       <c r="L181">
-        <v>50.8616980223923</v>
+        <v>59.97264587648662</v>
       </c>
       <c r="M181">
-        <v>53.94053123798319</v>
+        <v>54.76785855812531</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -7194,37 +7188,37 @@
         <v>194</v>
       </c>
       <c r="B182">
-        <v>4.058410167694092</v>
+        <v>4.018802642822266</v>
       </c>
       <c r="C182">
-        <v>4.063560009002686</v>
+        <v>4.019513607025146</v>
       </c>
       <c r="D182">
-        <v>4.030984401702881</v>
+        <v>4.018802642822266</v>
       </c>
       <c r="E182">
-        <v>4.042808055877686</v>
+        <v>4.019513607025146</v>
       </c>
       <c r="F182">
-        <v>94520</v>
+        <v>3267</v>
       </c>
       <c r="G182">
-        <v>4.048782981562828</v>
+        <v>3.990166122732226</v>
       </c>
       <c r="H182">
-        <v>4.051523494720459</v>
+        <v>3.970114696025848</v>
       </c>
       <c r="I182">
-        <v>4.031304001808167</v>
+        <v>3.979597043991089</v>
       </c>
       <c r="J182">
-        <v>4.014498580156861</v>
+        <v>4.010496030451946</v>
       </c>
       <c r="L182">
-        <v>45.20750777985095</v>
+        <v>62.7314738915606</v>
       </c>
       <c r="M182">
-        <v>49.95488002546064</v>
+        <v>56.42987519495772</v>
       </c>
     </row>
   </sheetData>
